--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +49,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -128,10 +76,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -169,71 +117,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -261,7 +209,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -284,11 +232,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -297,13 +245,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +261,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +270,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +279,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +287,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -407,55 +355,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="n">
-        <v>3.107592444382212</v>
-      </c>
-      <c r="C1" t="n">
-        <v>4.955947913752579</v>
-      </c>
-      <c r="D1" t="n">
-        <v>9.364911005725618</v>
-      </c>
-      <c r="E1" t="n">
-        <v>19.07696820544015</v>
-      </c>
-      <c r="F1" t="n">
-        <v>37.07475249867846</v>
-      </c>
-      <c r="G1" t="n">
-        <v>71.63737020456389</v>
-      </c>
-      <c r="H1" t="n">
-        <v>144.7491871623785</v>
-      </c>
-      <c r="I1" t="n">
-        <v>288.7591441964964</v>
-      </c>
-      <c r="J1" t="n">
-        <v>578.4559351038039</v>
-      </c>
-      <c r="K1" t="n">
-        <v>1156.440535575302</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -52,10 +52,10 @@
   <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,7 +366,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -376,37 +376,6 @@
     <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -355,29 +413,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>3.06333513865784</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4.969480335136774</v>
+      </c>
+      <c r="D1" t="n">
+        <v>6.903183631835497</v>
+      </c>
+      <c r="E1" t="n">
+        <v>8.921377202387516</v>
+      </c>
+      <c r="F1" t="n">
+        <v>10.87168641311016</v>
+      </c>
+      <c r="G1" t="n">
+        <v>12.79104239245185</v>
+      </c>
+      <c r="H1" t="n">
+        <v>14.80832674159909</v>
+      </c>
+      <c r="I1" t="n">
+        <v>16.62613124335098</v>
+      </c>
+      <c r="J1" t="n">
+        <v>18.73540606967725</v>
+      </c>
+      <c r="K1" t="n">
+        <v>20.8086201974007</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -16,13 +16,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +45,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -43,14 +62,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -418,7 +461,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:ZQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,52 +469,2604 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="23" max="23"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="24" max="24"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="25" max="25"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="26" max="26"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="27" max="27"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="28" max="28"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="29" max="29"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="30" max="30"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="31" max="31"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="32" max="32"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="33" max="33"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="34" max="34"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="35" max="35"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="36" max="36"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="37" max="37"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="38" max="38"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="39" max="39"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="40" max="40"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="41" max="41"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="42" max="42"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="43" max="43"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="44" max="44"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="45" max="45"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="46" max="46"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="47" max="47"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="48" max="48"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="49" max="49"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="50" max="50"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="51" max="51"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="52" max="52"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="53" max="53"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="54" max="54"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="55" max="55"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="56" max="56"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="57" max="57"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="58" max="58"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="59" max="59"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="60" max="60"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="61" max="61"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="62" max="62"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="63" max="63"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="64" max="64"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="65" max="65"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="66" max="66"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="67" max="67"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="68" max="68"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="69" max="69"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="70" max="70"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="71" max="71"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="72" max="72"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="73" max="73"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="74" max="74"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="75" max="75"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="76" max="76"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="77" max="77"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="78" max="78"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="79" max="79"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="80" max="80"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="81" max="81"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="82" max="82"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="83" max="83"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="84" max="84"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="85" max="85"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="86" max="86"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="87" max="87"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="88" max="88"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="89" max="89"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="90" max="90"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="91" max="91"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="92" max="92"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="93" max="93"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="94" max="94"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="95" max="95"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="96" max="96"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="97" max="97"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="98" max="98"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="99" max="99"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="100" max="100"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="101" max="101"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="102" max="102"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="103" max="103"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="104" max="104"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="105" max="105"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="106" max="106"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="107" max="107"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="108" max="108"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="109" max="109"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="110" max="110"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="111" max="111"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="112" max="112"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="113" max="113"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="114" max="114"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="115" max="115"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="116" max="116"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="117" max="117"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="118" max="118"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="119" max="119"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="120" max="120"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="121" max="121"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="122" max="122"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="123" max="123"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="124" max="124"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="125" max="125"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="126" max="126"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="127" max="127"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="128" max="128"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="129" max="129"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="130" max="130"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="131" max="131"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="132" max="132"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="133" max="133"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="134" max="134"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="135" max="135"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="136" max="136"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="137" max="137"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="138" max="138"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="139" max="139"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="140" max="140"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="141" max="141"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="142" max="142"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="143" max="143"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="144" max="144"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="145" max="145"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="146" max="146"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="147" max="147"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="148" max="148"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="149" max="149"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="150" max="150"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="151" max="151"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="152" max="152"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="153" max="153"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="154" max="154"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="155" max="155"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="156" max="156"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="157" max="157"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="158" max="158"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="159" max="159"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="160" max="160"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="161" max="161"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="162" max="162"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="163" max="163"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="164" max="164"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="165" max="165"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="166" max="166"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="167" max="167"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="168" max="168"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="169" max="169"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="170" max="170"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="171" max="171"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="172" max="172"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="173" max="173"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="174" max="174"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="175" max="175"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="176" max="176"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="177" max="177"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="178" max="178"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="179" max="179"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="180" max="180"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="181" max="181"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="182" max="182"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="183" max="183"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="184" max="184"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="185" max="185"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="186" max="186"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="187" max="187"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="188" max="188"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="189" max="189"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="190" max="190"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="191" max="191"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="192" max="192"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="193" max="193"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="194" max="194"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="195" max="195"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="196" max="196"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="197" max="197"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="198" max="198"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="199" max="199"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="200" max="200"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="201" max="201"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="202" max="202"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="203" max="203"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="204" max="204"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="205" max="205"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="206" max="206"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="207" max="207"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="208" max="208"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="209" max="209"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="210" max="210"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="211" max="211"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="212" max="212"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="213" max="213"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="214" max="214"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="215" max="215"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="216" max="216"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="217" max="217"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="218" max="218"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="219" max="219"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="220" max="220"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="221" max="221"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="222" max="222"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="223" max="223"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="224" max="224"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="225" max="225"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="226" max="226"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="227" max="227"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="228" max="228"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="229" max="229"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="230" max="230"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="231" max="231"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="232" max="232"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="233" max="233"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="234" max="234"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="235" max="235"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="236" max="236"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="237" max="237"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="238" max="238"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="239" max="239"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="240" max="240"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="241" max="241"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="242" max="242"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="243" max="243"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="244" max="244"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="245" max="245"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="246" max="246"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="247" max="247"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="248" max="248"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="249" max="249"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="250" max="250"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="251" max="251"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="252" max="252"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="253" max="253"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="254" max="254"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="255" max="255"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="256" max="256"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="257" max="257"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="258" max="258"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="259" max="259"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="260" max="260"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="261" max="261"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="262" max="262"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="263" max="263"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="264" max="264"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="265" max="265"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="266" max="266"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="267" max="267"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="268" max="268"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="269" max="269"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="270" max="270"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="271" max="271"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="272" max="272"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="273" max="273"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="274" max="274"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="275" max="275"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="276" max="276"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="277" max="277"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="278" max="278"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="279" max="279"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="280" max="280"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="281" max="281"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="282" max="282"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="283" max="283"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="284" max="284"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="285" max="285"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="286" max="286"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="287" max="287"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="288" max="288"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="289" max="289"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="290" max="290"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="291" max="291"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="292" max="292"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="293" max="293"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="294" max="294"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="295" max="295"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="296" max="296"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="297" max="297"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="298" max="298"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="299" max="299"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="300" max="300"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="301" max="301"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="302" max="302"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="303" max="303"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="304" max="304"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="305" max="305"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="306" max="306"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="307" max="307"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="308" max="308"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="309" max="309"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="310" max="310"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="311" max="311"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="312" max="312"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="313" max="313"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="314" max="314"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="315" max="315"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="316" max="316"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="317" max="317"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="318" max="318"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="319" max="319"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="320" max="320"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="321" max="321"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="322" max="322"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="323" max="323"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="324" max="324"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="325" max="325"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="326" max="326"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="327" max="327"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="328" max="328"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="329" max="329"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="330" max="330"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="331" max="331"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="332" max="332"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="333" max="333"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="334" max="334"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="335" max="335"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="336" max="336"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="337" max="337"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="338" max="338"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="339" max="339"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="340" max="340"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="341" max="341"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="342" max="342"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="343" max="343"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="344" max="344"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="345" max="345"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="346" max="346"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="347" max="347"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="348" max="348"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="349" max="349"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="350" max="350"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="351" max="351"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="352" max="352"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="353" max="353"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="354" max="354"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="355" max="355"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="356" max="356"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="357" max="357"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="358" max="358"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="359" max="359"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="360" max="360"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="361" max="361"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="362" max="362"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="363" max="363"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="364" max="364"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="365" max="365"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="366" max="366"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="367" max="367"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="368" max="368"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="369" max="369"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="370" max="370"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="371" max="371"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="372" max="372"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="373" max="373"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="374" max="374"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="375" max="375"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="376" max="376"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="377" max="377"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="378" max="378"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="379" max="379"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="380" max="380"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="381" max="381"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="382" max="382"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="383" max="383"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="384" max="384"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="385" max="385"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="386" max="386"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="387" max="387"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="388" max="388"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="389" max="389"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="390" max="390"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="391" max="391"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="392" max="392"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="393" max="393"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="394" max="394"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="395" max="395"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="396" max="396"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="397" max="397"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="398" max="398"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="399" max="399"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="400" max="400"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="401" max="401"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="402" max="402"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="403" max="403"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="404" max="404"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="405" max="405"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="406" max="406"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="407" max="407"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="408" max="408"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="409" max="409"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="410" max="410"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="411" max="411"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="412" max="412"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="413" max="413"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="414" max="414"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="415" max="415"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="416" max="416"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="417" max="417"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="418" max="418"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="419" max="419"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="420" max="420"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="421" max="421"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="422" max="422"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="423" max="423"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="424" max="424"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="425" max="425"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="426" max="426"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="427" max="427"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="428" max="428"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="429" max="429"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="430" max="430"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="431" max="431"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="432" max="432"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="433" max="433"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="434" max="434"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="435" max="435"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="436" max="436"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="437" max="437"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="438" max="438"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="439" max="439"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="440" max="440"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="441" max="441"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="442" max="442"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="443" max="443"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="444" max="444"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="445" max="445"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="446" max="446"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="447" max="447"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="448" max="448"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="449" max="449"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="450" max="450"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="451" max="451"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="452" max="452"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="453" max="453"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="454" max="454"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="455" max="455"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="456" max="456"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="457" max="457"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="458" max="458"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="459" max="459"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="460" max="460"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="461" max="461"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="462" max="462"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="463" max="463"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="464" max="464"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="465" max="465"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="466" max="466"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="467" max="467"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="468" max="468"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="469" max="469"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="470" max="470"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="471" max="471"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="472" max="472"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="473" max="473"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="474" max="474"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="475" max="475"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="476" max="476"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="477" max="477"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="478" max="478"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="479" max="479"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="480" max="480"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="481" max="481"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="482" max="482"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="483" max="483"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="484" max="484"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="485" max="485"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="486" max="486"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="487" max="487"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="488" max="488"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="489" max="489"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="490" max="490"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="491" max="491"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="492" max="492"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="493" max="493"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="494" max="494"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="495" max="495"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="496" max="496"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="497" max="497"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="498" max="498"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="499" max="499"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="500" max="500"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="501" max="501"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="502" max="502"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="503" max="503"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="504" max="504"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="505" max="505"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="506" max="506"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="507" max="507"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="508" max="508"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="509" max="509"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="510" max="510"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="511" max="511"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="512" max="512"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="513" max="513"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="514" max="514"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="515" max="515"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="516" max="516"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="517" max="517"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="518" max="518"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="519" max="519"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="520" max="520"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="521" max="521"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="522" max="522"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="523" max="523"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="524" max="524"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="525" max="525"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="526" max="526"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="527" max="527"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="528" max="528"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="529" max="529"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="530" max="530"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="531" max="531"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="532" max="532"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="533" max="533"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="534" max="534"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="535" max="535"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="536" max="536"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="537" max="537"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="538" max="538"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="539" max="539"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="540" max="540"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="541" max="541"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="542" max="542"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="543" max="543"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="544" max="544"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="545" max="545"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="546" max="546"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="547" max="547"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="548" max="548"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="549" max="549"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="550" max="550"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="551" max="551"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="552" max="552"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="553" max="553"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="554" max="554"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="555" max="555"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="556" max="556"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="557" max="557"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="558" max="558"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="559" max="559"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="560" max="560"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="561" max="561"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="562" max="562"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="563" max="563"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="564" max="564"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="565" max="565"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="566" max="566"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="567" max="567"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="568" max="568"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="569" max="569"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="570" max="570"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="571" max="571"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="572" max="572"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="573" max="573"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="574" max="574"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="575" max="575"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="576" max="576"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="577" max="577"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="578" max="578"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="579" max="579"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="580" max="580"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="581" max="581"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="582" max="582"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="583" max="583"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="584" max="584"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="585" max="585"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="586" max="586"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="587" max="587"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="588" max="588"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="589" max="589"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="590" max="590"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="591" max="591"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="592" max="592"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="593" max="593"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="594" max="594"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="595" max="595"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="596" max="596"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="597" max="597"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="598" max="598"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="599" max="599"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="600" max="600"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="601" max="601"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="602" max="602"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="603" max="603"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="604" max="604"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="605" max="605"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="606" max="606"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="607" max="607"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="608" max="608"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="609" max="609"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="610" max="610"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="611" max="611"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="612" max="612"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="613" max="613"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="614" max="614"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="615" max="615"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="616" max="616"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="617" max="617"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="618" max="618"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="619" max="619"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="620" max="620"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="621" max="621"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="622" max="622"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="623" max="623"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="624" max="624"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="625" max="625"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="626" max="626"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="627" max="627"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="628" max="628"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="629" max="629"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="630" max="630"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="631" max="631"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="632" max="632"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="633" max="633"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="634" max="634"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="635" max="635"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="636" max="636"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="637" max="637"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="638" max="638"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="639" max="639"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="640" max="640"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="641" max="641"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="642" max="642"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="643" max="643"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="644" max="644"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="645" max="645"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="646" max="646"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="647" max="647"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="648" max="648"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="649" max="649"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="650" max="650"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="651" max="651"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="652" max="652"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="653" max="653"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="654" max="654"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="655" max="655"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="656" max="656"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="657" max="657"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="658" max="658"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="659" max="659"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="660" max="660"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="661" max="661"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="662" max="662"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="663" max="663"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="664" max="664"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="665" max="665"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="666" max="666"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="667" max="667"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="668" max="668"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="669" max="669"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="670" max="670"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="671" max="671"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="672" max="672"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="673" max="673"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="674" max="674"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="675" max="675"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="676" max="676"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="677" max="677"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="678" max="678"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="679" max="679"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="680" max="680"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="681" max="681"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="682" max="682"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="683" max="683"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="684" max="684"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="685" max="685"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="686" max="686"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="687" max="687"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="688" max="688"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="689" max="689"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="690" max="690"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="691" max="691"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="692" max="692"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="693" max="693"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>15540.06531393807</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>471242.0404919511</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>14142301.11784145</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>424274073.5859354</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>12728227247.48876</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>381846822464.7188</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>11455404678981.67</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>343662140374490.1</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>1.030986421123974e+16</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>3.092959263371973e+17</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>9.278877790115924e+18</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>2.783663337034777e+20</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>8.350990011104332e+21</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>2.5052970033313e+23</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>7.515891009993899e+24</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>2.25476730299817e+26</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>6.764301908994509e+27</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>2.029290572698353e+29</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>6.087871718095058e+30</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>1.826361515428517e+32</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>5.479084546285552e+33</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>1.643725363885666e+35</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>4.931176091656997e+36</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>1.479352827497099e+38</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>4.438058482491297e+39</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>1.331417544747389e+41</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>3.994252634242167e+42</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>1.19827579027265e+44</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>3.594827370817951e+45</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>1.078448211245385e+47</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>3.235344633736156e+48</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>9.706033901208467e+49</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>2.91181017036254e+51</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>8.73543051108762e+52</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>2.620629153326286e+54</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>7.861887459978858e+55</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>2.358566237993657e+57</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>7.075698713980972e+58</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>2.122709614194291e+60</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>6.368128842582875e+61</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>1.910438652774862e+63</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>5.731315958324586e+64</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>1.719394787497376e+66</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>5.158184362492127e+67</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>1.547455308747638e+69</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>4.642365926242915e+70</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>1.392709777872874e+72</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>4.178129333618623e+73</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>1.253438800085587e+75</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>3.760316400256761e+76</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>1.128094920077028e+78</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>3.384284760231085e+79</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>1.015285428069326e+81</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>3.045856284207977e+82</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>9.137568852623931e+83</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>2.741270655787179e+85</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>8.223811967361537e+86</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>2.467143590208461e+88</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>7.401430770625383e+89</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>2.220429231187615e+91</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>6.661287693562845e+92</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>1.998386308068854e+94</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>5.995158924206561e+95</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>1.798547677261968e+97</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>5.395643031785905e+98</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>1.618692909535771e+100</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>4.856078728607314e+101</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>1.456823618582194e+103</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>4.370470855746583e+104</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>1.311141256723975e+106</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>3.933423770171925e+107</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>1.180027131051578e+109</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>3.540081393154733e+110</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>1.06202441794642e+112</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>3.186073253839259e+113</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>9.558219761517777e+114</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>2.867465928455333e+116</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>8.602397785365999e+117</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>2.5807193356098e+119</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>7.7421580068294e+120</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>2.32264740204882e+122</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>6.96794220614646e+123</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>2.090382661843938e+125</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>6.271147985531813e+126</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>1.881344395659544e+128</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>5.644033186978631e+129</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>1.693209956093589e+131</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>5.079629868280768e+132</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>1.52388896048423e+134</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>4.571666881452692e+135</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>1.371500064435808e+137</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>4.114500193307423e+138</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>1.234350057992227e+140</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>3.70305017397668e+141</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>1.110915052193004e+143</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>3.332745156579012e+144</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>9.998235469737038e+145</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>2.999470640921111e+147</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>8.998411922763334e+148</v>
+      </c>
+      <c r="CY1" s="1" t="n">
+        <v>2.699523576829e+150</v>
+      </c>
+      <c r="CZ1" s="1" t="n">
+        <v>8.098570730487001e+151</v>
+      </c>
+      <c r="DA1" s="1" t="n">
+        <v>2.4295712191461e+153</v>
+      </c>
+      <c r="DB1" s="1" t="n">
+        <v>7.2887136574383e+154</v>
+      </c>
+      <c r="DC1" s="1" t="n">
+        <v>2.18661409723149e+156</v>
+      </c>
+      <c r="DD1" s="1" t="n">
+        <v>6.559842291694471e+157</v>
+      </c>
+      <c r="DE1" s="1" t="n">
+        <v>1.967952687508341e+159</v>
+      </c>
+      <c r="DF1" s="1" t="n">
+        <v>5.903858062525024e+160</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>1.771157418757507e+162</v>
+      </c>
+      <c r="DH1" s="1" t="n">
+        <v>5.313472256272522e+163</v>
+      </c>
+      <c r="DI1" s="1" t="n">
+        <v>1.594041676881756e+165</v>
+      </c>
+      <c r="DJ1" s="1" t="n">
+        <v>4.78212503064527e+166</v>
+      </c>
+      <c r="DK1" s="1" t="n">
+        <v>1.434637509193581e+168</v>
+      </c>
+      <c r="DL1" s="1" t="n">
+        <v>4.303912527580743e+169</v>
+      </c>
+      <c r="DM1" s="1" t="n">
+        <v>1.291173758274223e+171</v>
+      </c>
+      <c r="DN1" s="1" t="n">
+        <v>3.873521274822668e+172</v>
+      </c>
+      <c r="DO1" s="1" t="n">
+        <v>1.1620563824468e+174</v>
+      </c>
+      <c r="DP1" s="1" t="n">
+        <v>3.486169147340401e+175</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
+        <v>1.04585074420212e+177</v>
+      </c>
+      <c r="DR1" s="1" t="n">
+        <v>3.137552232606361e+178</v>
+      </c>
+      <c r="DS1" s="1" t="n">
+        <v>9.412656697819084e+179</v>
+      </c>
+      <c r="DT1" s="1" t="n">
+        <v>2.823797009345725e+181</v>
+      </c>
+      <c r="DU1" s="1" t="n">
+        <v>8.471391028037176e+182</v>
+      </c>
+      <c r="DV1" s="1" t="n">
+        <v>2.541417308411153e+184</v>
+      </c>
+      <c r="DW1" s="1" t="n">
+        <v>7.624251925233459e+185</v>
+      </c>
+      <c r="DX1" s="1" t="n">
+        <v>2.287275577570038e+187</v>
+      </c>
+      <c r="DY1" s="1" t="n">
+        <v>6.861826732710113e+188</v>
+      </c>
+      <c r="DZ1" s="1" t="n">
+        <v>2.058548019813034e+190</v>
+      </c>
+      <c r="EA1" s="1" t="n">
+        <v>6.175644059439102e+191</v>
+      </c>
+      <c r="EB1" s="1" t="n">
+        <v>1.85269321783173e+193</v>
+      </c>
+      <c r="EC1" s="1" t="n">
+        <v>5.558079653495192e+194</v>
+      </c>
+      <c r="ED1" s="1" t="n">
+        <v>1.667423896048557e+196</v>
+      </c>
+      <c r="EE1" s="1" t="n">
+        <v>5.002271688145672e+197</v>
+      </c>
+      <c r="EF1" s="1" t="n">
+        <v>1.500681506443702e+199</v>
+      </c>
+      <c r="EG1" s="1" t="n">
+        <v>4.502044519331105e+200</v>
+      </c>
+      <c r="EH1" s="1" t="n">
+        <v>1.350613355799332e+202</v>
+      </c>
+      <c r="EI1" s="1" t="n">
+        <v>4.051840067397995e+203</v>
+      </c>
+      <c r="EJ1" s="1" t="n">
+        <v>1.215552020219398e+205</v>
+      </c>
+      <c r="EK1" s="1" t="n">
+        <v>3.646656060658195e+206</v>
+      </c>
+      <c r="EL1" s="1" t="n">
+        <v>1.093996818197459e+208</v>
+      </c>
+      <c r="EM1" s="1" t="n">
+        <v>3.281990454592376e+209</v>
+      </c>
+      <c r="EN1" s="1" t="n">
+        <v>9.845971363777128e+210</v>
+      </c>
+      <c r="EO1" s="1" t="n">
+        <v>2.953791409133138e+212</v>
+      </c>
+      <c r="EP1" s="1" t="n">
+        <v>8.861374227399415e+213</v>
+      </c>
+      <c r="EQ1" s="1" t="n">
+        <v>2.658412268219825e+215</v>
+      </c>
+      <c r="ER1" s="1" t="n">
+        <v>7.975236804659474e+216</v>
+      </c>
+      <c r="ES1" s="1" t="n">
+        <v>2.392571041397842e+218</v>
+      </c>
+      <c r="ET1" s="1" t="n">
+        <v>7.177713124193527e+219</v>
+      </c>
+      <c r="EU1" s="1" t="n">
+        <v>2.153313937258058e+221</v>
+      </c>
+      <c r="EV1" s="1" t="n">
+        <v>6.459941811774176e+222</v>
+      </c>
+      <c r="EW1" s="1" t="n">
+        <v>1.937982543532253e+224</v>
+      </c>
+      <c r="EX1" s="1" t="n">
+        <v>5.813947630596758e+225</v>
+      </c>
+      <c r="EY1" s="1" t="n">
+        <v>1.744184289179027e+227</v>
+      </c>
+      <c r="EZ1" s="1" t="n">
+        <v>5.232552867537082e+228</v>
+      </c>
+      <c r="FA1" s="1" t="n">
+        <v>1.569765860261125e+230</v>
+      </c>
+      <c r="FB1" s="1" t="n">
+        <v>4.709297580783374e+231</v>
+      </c>
+      <c r="FC1" s="1" t="n">
+        <v>1.412789274235012e+233</v>
+      </c>
+      <c r="FD1" s="1" t="n">
+        <v>4.238367822705036e+234</v>
+      </c>
+      <c r="FE1" s="1" t="n">
+        <v>1.271510346811511e+236</v>
+      </c>
+      <c r="FF1" s="1" t="n">
+        <v>3.814531040434533e+237</v>
+      </c>
+      <c r="FG1" s="1" t="n">
+        <v>1.14435931213036e+239</v>
+      </c>
+      <c r="FH1" s="1" t="n">
+        <v>3.433077936391079e+240</v>
+      </c>
+      <c r="FI1" s="1" t="n">
+        <v>1.029923380917324e+242</v>
+      </c>
+      <c r="FJ1" s="1" t="n">
+        <v>3.089770142751971e+243</v>
+      </c>
+      <c r="FK1" s="1" t="n">
+        <v>9.269310428255915e+244</v>
+      </c>
+      <c r="FL1" s="1" t="n">
+        <v>2.780793128476774e+246</v>
+      </c>
+      <c r="FM1" s="1" t="n">
+        <v>8.342379385430323e+247</v>
+      </c>
+      <c r="FN1" s="1" t="n">
+        <v>2.502713815629097e+249</v>
+      </c>
+      <c r="FO1" s="1" t="n">
+        <v>7.508141446887292e+250</v>
+      </c>
+      <c r="FP1" s="1" t="n">
+        <v>2.252442434066188e+252</v>
+      </c>
+      <c r="FQ1" s="1" t="n">
+        <v>6.757327302198563e+253</v>
+      </c>
+      <c r="FR1" s="1" t="n">
+        <v>2.027198190659569e+255</v>
+      </c>
+      <c r="FS1" s="1" t="n">
+        <v>6.081594571978707e+256</v>
+      </c>
+      <c r="FT1" s="1" t="n">
+        <v>1.824478371593612e+258</v>
+      </c>
+      <c r="FU1" s="1" t="n">
+        <v>5.473435114780836e+259</v>
+      </c>
+      <c r="FV1" s="1" t="n">
+        <v>1.642030534434251e+261</v>
+      </c>
+      <c r="FW1" s="1" t="n">
+        <v>4.926091603302753e+262</v>
+      </c>
+      <c r="FX1" s="1" t="n">
+        <v>1.477827480990826e+264</v>
+      </c>
+      <c r="FY1" s="1" t="n">
+        <v>4.433482442972477e+265</v>
+      </c>
+      <c r="FZ1" s="1" t="n">
+        <v>1.330044732891743e+267</v>
+      </c>
+      <c r="GA1" s="1" t="n">
+        <v>3.99013419867523e+268</v>
+      </c>
+      <c r="GB1" s="1" t="n">
+        <v>1.197040259602569e+270</v>
+      </c>
+      <c r="GC1" s="1" t="n">
+        <v>3.591120778807707e+271</v>
+      </c>
+      <c r="GD1" s="1" t="n">
+        <v>1.077336233642312e+273</v>
+      </c>
+      <c r="GE1" s="1" t="n">
+        <v>3.232008700926937e+274</v>
+      </c>
+      <c r="GF1" s="1" t="n">
+        <v>9.696026102780809e+275</v>
+      </c>
+      <c r="GG1" s="1" t="n">
+        <v>2.908807830834243e+277</v>
+      </c>
+      <c r="GH1" s="1" t="n">
+        <v>8.726423492502728e+278</v>
+      </c>
+      <c r="GI1" s="1" t="n">
+        <v>2.617927047750818e+280</v>
+      </c>
+      <c r="GJ1" s="1" t="n">
+        <v>7.853781143252456e+281</v>
+      </c>
+      <c r="GK1" s="1" t="n">
+        <v>2.356134342975737e+283</v>
+      </c>
+      <c r="GL1" s="1" t="n">
+        <v>7.06840302892721e+284</v>
+      </c>
+      <c r="GM1" s="1" t="n">
+        <v>2.120520908678163e+286</v>
+      </c>
+      <c r="GN1" s="1" t="n">
+        <v>6.361562726034489e+287</v>
+      </c>
+      <c r="GO1" s="1" t="n">
+        <v>1.908468817810347e+289</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>5.725406453431041e+290</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>1.717621936029312e+292</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>5.152865808087936e+293</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>1.545859742426381e+295</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>4.637579227279143e+296</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>1.391273768183743e+298</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>4.173821304551228e+299</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>1.252146391365368e+301</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>3.756439174096106e+302</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>1.126931752228832e+304</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>3.380795256686495e+305</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>1.014238577005948e+307</v>
+      </c>
+      <c r="HB1" s="10" t="n"/>
+      <c r="HC1" s="10" t="n"/>
+      <c r="HD1" s="10" t="n"/>
+      <c r="HE1" s="10" t="n"/>
+      <c r="HF1" s="10" t="n"/>
+      <c r="HG1" s="10" t="n"/>
+      <c r="HH1" s="10" t="n"/>
+      <c r="HI1" s="10" t="n"/>
+      <c r="HJ1" s="10" t="n"/>
+      <c r="HK1" s="10" t="n"/>
+      <c r="HL1" s="10" t="n"/>
+      <c r="HM1" s="10" t="n"/>
+      <c r="HN1" s="10" t="n"/>
+      <c r="HO1" s="10" t="n"/>
+      <c r="HP1" s="10" t="n"/>
+      <c r="HQ1" s="10" t="n"/>
+      <c r="HR1" s="10" t="n"/>
+      <c r="HS1" s="10" t="n"/>
+      <c r="HT1" s="10" t="n"/>
+      <c r="HU1" s="10" t="n"/>
+      <c r="HV1" s="10" t="n"/>
+      <c r="HW1" s="10" t="n"/>
+      <c r="HX1" s="10" t="n"/>
+      <c r="HY1" s="10" t="n"/>
+      <c r="HZ1" s="10" t="n"/>
+      <c r="IA1" s="10" t="n"/>
+      <c r="IB1" s="10" t="n"/>
+      <c r="IC1" s="10" t="n"/>
+      <c r="ID1" s="10" t="n"/>
+      <c r="IE1" s="10" t="n"/>
+      <c r="IF1" s="10" t="n"/>
+      <c r="IG1" s="10" t="n"/>
+      <c r="IH1" s="10" t="n"/>
+      <c r="II1" s="10" t="n"/>
+      <c r="IJ1" s="10" t="n"/>
+      <c r="IK1" s="10" t="n"/>
+      <c r="IL1" s="10" t="n"/>
+      <c r="IM1" s="10" t="n"/>
+      <c r="IN1" s="10" t="n"/>
+      <c r="IO1" s="10" t="n"/>
+      <c r="IP1" s="10" t="n"/>
+      <c r="IQ1" s="10" t="n"/>
+      <c r="IR1" s="10" t="n"/>
+      <c r="IS1" s="10" t="n"/>
+      <c r="IT1" s="10" t="n"/>
+      <c r="IU1" s="10" t="n"/>
+      <c r="IV1" s="10" t="n"/>
+      <c r="IW1" s="10" t="n"/>
+      <c r="IX1" s="10" t="n"/>
+      <c r="IY1" s="10" t="n"/>
+      <c r="IZ1" s="10" t="n"/>
+      <c r="JA1" s="10" t="n"/>
+      <c r="JB1" s="10" t="n"/>
+      <c r="JC1" s="10" t="n"/>
+      <c r="JD1" s="10" t="n"/>
+      <c r="JE1" s="10" t="n"/>
+      <c r="JF1" s="10" t="n"/>
+      <c r="JG1" s="10" t="n"/>
+      <c r="JH1" s="10" t="n"/>
+      <c r="JI1" s="10" t="n"/>
+      <c r="JJ1" s="10" t="n"/>
+      <c r="JK1" s="10" t="n"/>
+      <c r="JL1" s="10" t="n"/>
+      <c r="JM1" s="10" t="n"/>
+      <c r="JN1" s="10" t="n"/>
+      <c r="JO1" s="10" t="n"/>
+      <c r="JP1" s="10" t="n"/>
+      <c r="JQ1" s="10" t="n"/>
+      <c r="JR1" s="10" t="n"/>
+      <c r="JS1" s="10" t="n"/>
+      <c r="JT1" s="10" t="n"/>
+      <c r="JU1" s="10" t="n"/>
+      <c r="JV1" s="10" t="n"/>
+      <c r="JW1" s="10" t="n"/>
+      <c r="JX1" s="10" t="n"/>
+      <c r="JY1" s="10" t="n"/>
+      <c r="JZ1" s="10" t="n"/>
+      <c r="KA1" s="10" t="n"/>
+      <c r="KB1" s="10" t="n"/>
+      <c r="KC1" s="10" t="n"/>
+      <c r="KD1" s="10" t="n"/>
+      <c r="KE1" s="10" t="n"/>
+      <c r="KF1" s="10" t="n"/>
+      <c r="KG1" s="10" t="n"/>
+      <c r="KH1" s="10" t="n"/>
+      <c r="KI1" s="10" t="n"/>
+      <c r="KJ1" s="10" t="n"/>
+      <c r="KK1" s="10" t="n"/>
+      <c r="KL1" s="10" t="n"/>
+      <c r="KM1" s="10" t="n"/>
+      <c r="KN1" s="10" t="n"/>
+      <c r="KO1" s="10" t="n"/>
+      <c r="KP1" s="10" t="n"/>
+      <c r="KQ1" s="10" t="n"/>
+      <c r="KR1" s="10" t="n"/>
+      <c r="KS1" s="10" t="n"/>
+      <c r="KT1" s="10" t="n"/>
+      <c r="KU1" s="10" t="n"/>
+      <c r="KV1" s="10" t="n"/>
+      <c r="KW1" s="10" t="n"/>
+      <c r="KX1" s="10" t="n"/>
+      <c r="KY1" s="10" t="n"/>
+      <c r="KZ1" s="10" t="n"/>
+      <c r="LA1" s="10" t="n"/>
+      <c r="LB1" s="10" t="n"/>
+      <c r="LC1" s="10" t="n"/>
+      <c r="LD1" s="10" t="n"/>
+      <c r="LE1" s="10" t="n"/>
+      <c r="LF1" s="10" t="n"/>
+      <c r="LG1" s="10" t="n"/>
+      <c r="LH1" s="10" t="n"/>
+      <c r="LI1" s="10" t="n"/>
+      <c r="LJ1" s="10" t="n"/>
+      <c r="LK1" s="10" t="n"/>
+      <c r="LL1" s="10" t="n"/>
+      <c r="LM1" s="10" t="n"/>
+      <c r="LN1" s="10" t="n"/>
+      <c r="LO1" s="10" t="n"/>
+      <c r="LP1" s="10" t="n"/>
+      <c r="LQ1" s="10" t="n"/>
+      <c r="LR1" s="10" t="n"/>
+      <c r="LS1" s="10" t="n"/>
+      <c r="LT1" s="10" t="n"/>
+      <c r="LU1" s="10" t="n"/>
+      <c r="LV1" s="10" t="n"/>
+      <c r="LW1" s="10" t="n"/>
+      <c r="LX1" s="10" t="n"/>
+      <c r="LY1" s="10" t="n"/>
+      <c r="LZ1" s="10" t="n"/>
+      <c r="MA1" s="10" t="n"/>
+      <c r="MB1" s="10" t="n"/>
+      <c r="MC1" s="10" t="n"/>
+      <c r="MD1" s="10" t="n"/>
+      <c r="ME1" s="10" t="n"/>
+      <c r="MF1" s="10" t="n"/>
+      <c r="MG1" s="10" t="n"/>
+      <c r="MH1" s="10" t="n"/>
+      <c r="MI1" s="10" t="n"/>
+      <c r="MJ1" s="10" t="n"/>
+      <c r="MK1" s="10" t="n"/>
+      <c r="ML1" s="10" t="n"/>
+      <c r="MM1" s="10" t="n"/>
+      <c r="MN1" s="10" t="n"/>
+      <c r="MO1" s="10" t="n"/>
+      <c r="MP1" s="10" t="n"/>
+      <c r="MQ1" s="10" t="n"/>
+      <c r="MR1" s="10" t="n"/>
+      <c r="MS1" s="10" t="n"/>
+      <c r="MT1" s="10" t="n"/>
+      <c r="MU1" s="10" t="n"/>
+      <c r="MV1" s="10" t="n"/>
+      <c r="MW1" s="10" t="n"/>
+      <c r="MX1" s="10" t="n"/>
+      <c r="MY1" s="10" t="n"/>
+      <c r="MZ1" s="10" t="n"/>
+      <c r="NA1" s="10" t="n"/>
+      <c r="NB1" s="10" t="n"/>
+      <c r="NC1" s="10" t="n"/>
+      <c r="ND1" s="10" t="n"/>
+      <c r="NE1" s="10" t="n"/>
+      <c r="NF1" s="10" t="n"/>
+      <c r="NG1" s="10" t="n"/>
+      <c r="NH1" s="10" t="n"/>
+      <c r="NI1" s="10" t="n"/>
+      <c r="NJ1" s="10" t="n"/>
+      <c r="NK1" s="10" t="n"/>
+      <c r="NL1" s="10" t="n"/>
+      <c r="NM1" s="10" t="n"/>
+      <c r="NN1" s="10" t="n"/>
+      <c r="NO1" s="10" t="n"/>
+      <c r="NP1" s="10" t="n"/>
+      <c r="NQ1" s="10" t="n"/>
+      <c r="NR1" s="10" t="n"/>
+      <c r="NS1" s="10" t="n"/>
+      <c r="NT1" s="10" t="n"/>
+      <c r="NU1" s="10" t="n"/>
+      <c r="NV1" s="10" t="n"/>
+      <c r="NW1" s="10" t="n"/>
+      <c r="NX1" s="10" t="n"/>
+      <c r="NY1" s="10" t="n"/>
+      <c r="NZ1" s="10" t="n"/>
+      <c r="OA1" s="10" t="n"/>
+      <c r="OB1" s="10" t="n"/>
+      <c r="OC1" s="10" t="n"/>
+      <c r="OD1" s="10" t="n"/>
+      <c r="OE1" s="10" t="n"/>
+      <c r="OF1" s="10" t="n"/>
+      <c r="OG1" s="10" t="n"/>
+      <c r="OH1" s="10" t="n"/>
+      <c r="OI1" s="10" t="n"/>
+      <c r="OJ1" s="10" t="n"/>
+      <c r="OK1" s="10" t="n"/>
+      <c r="OL1" s="10" t="n"/>
+      <c r="OM1" s="10" t="n"/>
+      <c r="ON1" s="10" t="n"/>
+      <c r="OO1" s="10" t="n"/>
+      <c r="OP1" s="10" t="n"/>
+      <c r="OQ1" s="10" t="n"/>
+      <c r="OR1" s="10" t="n"/>
+      <c r="OS1" s="10" t="n"/>
+      <c r="OT1" s="10" t="n"/>
+      <c r="OU1" s="10" t="n"/>
+      <c r="OV1" s="10" t="n"/>
+      <c r="OW1" s="10" t="n"/>
+      <c r="OX1" s="10" t="n"/>
+      <c r="OY1" s="10" t="n"/>
+      <c r="OZ1" s="10" t="n"/>
+      <c r="PA1" s="10" t="n"/>
+      <c r="PB1" s="10" t="n"/>
+      <c r="PC1" s="10" t="n"/>
+      <c r="PD1" s="10" t="n"/>
+      <c r="PE1" s="10" t="n"/>
+      <c r="PF1" s="10" t="n"/>
+      <c r="PG1" s="10" t="n"/>
+      <c r="PH1" s="10" t="n"/>
+      <c r="PI1" s="10" t="n"/>
+      <c r="PJ1" s="10" t="n"/>
+      <c r="PK1" s="10" t="n"/>
+      <c r="PL1" s="10" t="n"/>
+      <c r="PM1" s="10" t="n"/>
+      <c r="PN1" s="10" t="n"/>
+      <c r="PO1" s="10" t="n"/>
+      <c r="PP1" s="10" t="n"/>
+      <c r="PQ1" s="10" t="n"/>
+      <c r="PR1" s="10" t="n"/>
+      <c r="PS1" s="10" t="n"/>
+      <c r="PT1" s="10" t="n"/>
+      <c r="PU1" s="10" t="n"/>
+      <c r="PV1" s="10" t="n"/>
+      <c r="PW1" s="10" t="n"/>
+      <c r="PX1" s="10" t="n"/>
+      <c r="PY1" s="10" t="n"/>
+      <c r="PZ1" s="10" t="n"/>
+      <c r="QA1" s="10" t="n"/>
+      <c r="QB1" s="10" t="n"/>
+      <c r="QC1" s="10" t="n"/>
+      <c r="QD1" s="10" t="n"/>
+      <c r="QE1" s="10" t="n"/>
+      <c r="QF1" s="10" t="n"/>
+      <c r="QG1" s="10" t="n"/>
+      <c r="QH1" s="10" t="n"/>
+      <c r="QI1" s="10" t="n"/>
+      <c r="QJ1" s="10" t="n"/>
+      <c r="QK1" s="10" t="n"/>
+      <c r="QL1" s="10" t="n"/>
+      <c r="QM1" s="10" t="n"/>
+      <c r="QN1" s="10" t="n"/>
+      <c r="QO1" s="10" t="n"/>
+      <c r="QP1" s="10" t="n"/>
+      <c r="QQ1" s="10" t="n"/>
+      <c r="QR1" s="10" t="n"/>
+      <c r="QS1" s="10" t="n"/>
+      <c r="QT1" s="10" t="n"/>
+      <c r="QU1" s="10" t="n"/>
+      <c r="QV1" s="10" t="n"/>
+      <c r="QW1" s="10" t="n"/>
+      <c r="QX1" s="10" t="n"/>
+      <c r="QY1" s="10" t="n"/>
+      <c r="QZ1" s="10" t="n"/>
+      <c r="RA1" s="10" t="n"/>
+      <c r="RB1" s="10" t="n"/>
+      <c r="RC1" s="10" t="n"/>
+      <c r="RD1" s="10" t="n"/>
+      <c r="RE1" s="10" t="n"/>
+      <c r="RF1" s="10" t="n"/>
+      <c r="RG1" s="10" t="n"/>
+      <c r="RH1" s="10" t="n"/>
+      <c r="RI1" s="10" t="n"/>
+      <c r="RJ1" s="10" t="n"/>
+      <c r="RK1" s="10" t="n"/>
+      <c r="RL1" s="10" t="n"/>
+      <c r="RM1" s="10" t="n"/>
+      <c r="RN1" s="10" t="n"/>
+      <c r="RO1" s="10" t="n"/>
+      <c r="RP1" s="10" t="n"/>
+      <c r="RQ1" s="10" t="n"/>
+      <c r="RR1" s="10" t="n"/>
+      <c r="RS1" s="10" t="n"/>
+      <c r="RT1" s="10" t="n"/>
+      <c r="RU1" s="10" t="n"/>
+      <c r="RV1" s="10" t="n"/>
+      <c r="RW1" s="10" t="n"/>
+      <c r="RX1" s="10" t="n"/>
+      <c r="RY1" s="10" t="n"/>
+      <c r="RZ1" s="10" t="n"/>
+      <c r="SA1" s="10" t="n"/>
+      <c r="SB1" s="10" t="n"/>
+      <c r="SC1" s="10" t="n"/>
+      <c r="SD1" s="10" t="n"/>
+      <c r="SE1" s="10" t="n"/>
+      <c r="SF1" s="10" t="n"/>
+      <c r="SG1" s="10" t="n"/>
+      <c r="SH1" s="10" t="n"/>
+      <c r="SI1" s="10" t="n"/>
+      <c r="SJ1" s="10" t="n"/>
+      <c r="SK1" s="10" t="n"/>
+      <c r="SL1" s="10" t="n"/>
+      <c r="SM1" s="10" t="n"/>
+      <c r="SN1" s="10" t="n"/>
+      <c r="SO1" s="10" t="n"/>
+      <c r="SP1" s="10" t="n"/>
+      <c r="SQ1" s="10" t="n"/>
+      <c r="SR1" s="10" t="n"/>
+      <c r="SS1" s="10" t="n"/>
+      <c r="ST1" s="10" t="n"/>
+      <c r="SU1" s="10" t="n"/>
+      <c r="SV1" s="10" t="n"/>
+      <c r="SW1" s="10" t="n"/>
+      <c r="SX1" s="10" t="n"/>
+      <c r="SY1" s="10" t="n"/>
+      <c r="SZ1" s="10" t="n"/>
+      <c r="TA1" s="10" t="n"/>
+      <c r="TB1" s="10" t="n"/>
+      <c r="TC1" s="10" t="n"/>
+      <c r="TD1" s="10" t="n"/>
+      <c r="TE1" s="10" t="n"/>
+      <c r="TF1" s="10" t="n"/>
+      <c r="TG1" s="10" t="n"/>
+      <c r="TH1" s="10" t="n"/>
+      <c r="TI1" s="10" t="n"/>
+      <c r="TJ1" s="10" t="n"/>
+      <c r="TK1" s="10" t="n"/>
+      <c r="TL1" s="10" t="n"/>
+      <c r="TM1" s="10" t="n"/>
+      <c r="TN1" s="10" t="n"/>
+      <c r="TO1" s="10" t="n"/>
+      <c r="TP1" s="10" t="n"/>
+      <c r="TQ1" s="10" t="n"/>
+      <c r="TR1" s="10" t="n"/>
+      <c r="TS1" s="10" t="n"/>
+      <c r="TT1" s="10" t="n"/>
+      <c r="TU1" s="10" t="n"/>
+      <c r="TV1" s="10" t="n"/>
+      <c r="TW1" s="10" t="n"/>
+      <c r="TX1" s="10" t="n"/>
+      <c r="TY1" s="10" t="n"/>
+      <c r="TZ1" s="10" t="n"/>
+      <c r="UA1" s="10" t="n"/>
+      <c r="UB1" s="10" t="n"/>
+      <c r="UC1" s="10" t="n"/>
+      <c r="UD1" s="10" t="n"/>
+      <c r="UE1" s="10" t="n"/>
+      <c r="UF1" s="10" t="n"/>
+      <c r="UG1" s="10" t="n"/>
+      <c r="UH1" s="10" t="n"/>
+      <c r="UI1" s="10" t="n"/>
+      <c r="UJ1" s="10" t="n"/>
+      <c r="UK1" s="10" t="n"/>
+      <c r="UL1" s="10" t="n"/>
+      <c r="UM1" s="10" t="n"/>
+      <c r="UN1" s="10" t="n"/>
+      <c r="UO1" s="10" t="n"/>
+      <c r="UP1" s="10" t="n"/>
+      <c r="UQ1" s="10" t="n"/>
+      <c r="UR1" s="10" t="n"/>
+      <c r="US1" s="10" t="n"/>
+      <c r="UT1" s="10" t="n"/>
+      <c r="UU1" s="10" t="n"/>
+      <c r="UV1" s="10" t="n"/>
+      <c r="UW1" s="10" t="n"/>
+      <c r="UX1" s="10" t="n"/>
+      <c r="UY1" s="10" t="n"/>
+      <c r="UZ1" s="10" t="n"/>
+      <c r="VA1" s="10" t="n"/>
+      <c r="VB1" s="10" t="n"/>
+      <c r="VC1" s="10" t="n"/>
+      <c r="VD1" s="10" t="n"/>
+      <c r="VE1" s="10" t="n"/>
+      <c r="VF1" s="10" t="n"/>
+      <c r="VG1" s="10" t="n"/>
+      <c r="VH1" s="10" t="n"/>
+      <c r="VI1" s="10" t="n"/>
+      <c r="VJ1" s="10" t="n"/>
+      <c r="VK1" s="10" t="n"/>
+      <c r="VL1" s="10" t="n"/>
+      <c r="VM1" s="10" t="n"/>
+      <c r="VN1" s="10" t="n"/>
+      <c r="VO1" s="10" t="n"/>
+      <c r="VP1" s="10" t="n"/>
+      <c r="VQ1" s="10" t="n"/>
+      <c r="VR1" s="10" t="n"/>
+      <c r="VS1" s="10" t="n"/>
+      <c r="VT1" s="10" t="n"/>
+      <c r="VU1" s="10" t="n"/>
+      <c r="VV1" s="10" t="n"/>
+      <c r="VW1" s="10" t="n"/>
+      <c r="VX1" s="10" t="n"/>
+      <c r="VY1" s="10" t="n"/>
+      <c r="VZ1" s="10" t="n"/>
+      <c r="WA1" s="10" t="n"/>
+      <c r="WB1" s="10" t="n"/>
+      <c r="WC1" s="10" t="n"/>
+      <c r="WD1" s="10" t="n"/>
+      <c r="WE1" s="10" t="n"/>
+      <c r="WF1" s="10" t="n"/>
+      <c r="WG1" s="10" t="n"/>
+      <c r="WH1" s="10" t="n"/>
+      <c r="WI1" s="10" t="n"/>
+      <c r="WJ1" s="10" t="n"/>
+      <c r="WK1" s="10" t="n"/>
+      <c r="WL1" s="10" t="n"/>
+      <c r="WM1" s="10" t="n"/>
+      <c r="WN1" s="10" t="n"/>
+      <c r="WO1" s="10" t="n"/>
+      <c r="WP1" s="10" t="n"/>
+      <c r="WQ1" s="10" t="n"/>
+      <c r="WR1" s="10" t="n"/>
+      <c r="WS1" s="10" t="n"/>
+      <c r="WT1" s="10" t="n"/>
+      <c r="WU1" s="10" t="n"/>
+      <c r="WV1" s="10" t="n"/>
+      <c r="WW1" s="10" t="n"/>
+      <c r="WX1" s="10" t="n"/>
+      <c r="WY1" s="10" t="n"/>
+      <c r="WZ1" s="10" t="n"/>
+      <c r="XA1" s="10" t="n"/>
+      <c r="XB1" s="10" t="n"/>
+      <c r="XC1" s="10" t="n"/>
+      <c r="XD1" s="10" t="n"/>
+      <c r="XE1" s="10" t="n"/>
+      <c r="XF1" s="10" t="n"/>
+      <c r="XG1" s="10" t="n"/>
+      <c r="XH1" s="10" t="n"/>
+      <c r="XI1" s="10" t="n"/>
+      <c r="XJ1" s="10" t="n"/>
+      <c r="XK1" s="10" t="n"/>
+      <c r="XL1" s="10" t="n"/>
+      <c r="XM1" s="10" t="n"/>
+      <c r="XN1" s="10" t="n"/>
+      <c r="XO1" s="10" t="n"/>
+      <c r="XP1" s="10" t="n"/>
+      <c r="XQ1" s="10" t="n"/>
+      <c r="XR1" s="10" t="n"/>
+      <c r="XS1" s="10" t="n"/>
+      <c r="XT1" s="10" t="n"/>
+      <c r="XU1" s="10" t="n"/>
+      <c r="XV1" s="10" t="n"/>
+      <c r="XW1" s="10" t="n"/>
+      <c r="XX1" s="10" t="n"/>
+      <c r="XY1" s="10" t="n"/>
+      <c r="XZ1" s="10" t="n"/>
+      <c r="YA1" s="10" t="n"/>
+      <c r="YB1" s="10" t="n"/>
+      <c r="YC1" s="10" t="n"/>
+      <c r="YD1" s="10" t="n"/>
+      <c r="YE1" s="10" t="n"/>
+      <c r="YF1" s="10" t="n"/>
+      <c r="YG1" s="10" t="n"/>
+      <c r="YH1" s="10" t="n"/>
+      <c r="YI1" s="10" t="n"/>
+      <c r="YJ1" s="10" t="n"/>
+      <c r="YK1" s="10" t="n"/>
+      <c r="YL1" s="10" t="n"/>
+      <c r="YM1" s="10" t="n"/>
+      <c r="YN1" s="10" t="n"/>
+      <c r="YO1" s="10" t="n"/>
+      <c r="YP1" s="10" t="n"/>
+      <c r="YQ1" s="10" t="n"/>
+      <c r="YR1" s="10" t="n"/>
+      <c r="YS1" s="10" t="n"/>
+      <c r="YT1" s="10" t="n"/>
+      <c r="YU1" s="10" t="n"/>
+      <c r="YV1" s="10" t="n"/>
+      <c r="YW1" s="10" t="n"/>
+      <c r="YX1" s="10" t="n"/>
+      <c r="YY1" s="10" t="n"/>
+      <c r="YZ1" s="10" t="n"/>
+      <c r="ZA1" s="10" t="n"/>
+      <c r="ZB1" s="10" t="n"/>
+      <c r="ZC1" s="10" t="n"/>
+      <c r="ZD1" s="10" t="n"/>
+      <c r="ZE1" s="10" t="n"/>
+      <c r="ZF1" s="10" t="n"/>
+      <c r="ZG1" s="10" t="n"/>
+      <c r="ZH1" s="10" t="n"/>
+      <c r="ZI1" s="10" t="n"/>
+      <c r="ZJ1" s="10" t="n"/>
+      <c r="ZK1" s="10" t="n"/>
+      <c r="ZL1" s="10" t="n"/>
+      <c r="ZM1" s="10" t="n"/>
+      <c r="ZN1" s="10" t="n"/>
+      <c r="ZO1" s="10" t="n"/>
+      <c r="ZP1" s="10" t="n"/>
+      <c r="ZQ1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>119.3715778051116</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>237.362948569148</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>378.9624720293169</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>548.9932254569989</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>752.9798508639808</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>997.8168224206385</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>1291.506541776864</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>1644.002439145112</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>2066.984014709218</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>2574.372585702913</v>
+      </c>
+      <c r="N2" s="9" t="n"/>
+      <c r="O2" s="9" t="n"/>
+      <c r="P2" s="9" t="n"/>
+      <c r="Q2" s="9" t="n"/>
+      <c r="R2" s="9" t="n"/>
+      <c r="S2" s="9" t="n"/>
+      <c r="T2" s="9" t="n"/>
+      <c r="U2" s="9" t="n"/>
+      <c r="V2" s="9" t="n"/>
+      <c r="W2" s="9" t="n"/>
+      <c r="X2" s="9" t="n"/>
+      <c r="Y2" s="9" t="n"/>
+      <c r="Z2" s="9" t="n"/>
+      <c r="AA2" s="9" t="n"/>
+      <c r="AB2" s="9" t="n"/>
+      <c r="AC2" s="9" t="n"/>
+      <c r="AD2" s="9" t="n"/>
+      <c r="AE2" s="9" t="n"/>
+      <c r="AF2" s="9" t="n"/>
+      <c r="AG2" s="9" t="n"/>
+      <c r="AH2" s="9" t="n"/>
+      <c r="AI2" s="9" t="n"/>
+      <c r="AJ2" s="9" t="n"/>
+      <c r="AK2" s="9" t="n"/>
+      <c r="AL2" s="9" t="n"/>
+      <c r="AM2" s="9" t="n"/>
+      <c r="AN2" s="9" t="n"/>
+      <c r="AO2" s="9" t="n"/>
+      <c r="AP2" s="9" t="n"/>
+      <c r="AQ2" s="9" t="n"/>
+      <c r="AR2" s="9" t="n"/>
+      <c r="AS2" s="9" t="n"/>
+      <c r="AT2" s="9" t="n"/>
+      <c r="AU2" s="9" t="n"/>
+      <c r="AV2" s="9" t="n"/>
+      <c r="AW2" s="9" t="n"/>
+      <c r="AX2" s="9" t="n"/>
+      <c r="AY2" s="9" t="n"/>
+      <c r="AZ2" s="9" t="n"/>
+      <c r="BA2" s="9" t="n"/>
+      <c r="BB2" s="9" t="n"/>
+      <c r="BC2" s="9" t="n"/>
+      <c r="BD2" s="9" t="n"/>
+      <c r="BE2" s="9" t="n"/>
+      <c r="BF2" s="9" t="n"/>
+      <c r="BG2" s="9" t="n"/>
+      <c r="BH2" s="9" t="n"/>
+      <c r="BI2" s="9" t="n"/>
+      <c r="BJ2" s="9" t="n"/>
+      <c r="BK2" s="9" t="n"/>
+      <c r="BL2" s="9" t="n"/>
+      <c r="BM2" s="9" t="n"/>
+      <c r="BN2" s="9" t="n"/>
+      <c r="BO2" s="9" t="n"/>
+      <c r="BP2" s="9" t="n"/>
+      <c r="BQ2" s="9" t="n"/>
+      <c r="BR2" s="9" t="n"/>
+      <c r="BS2" s="9" t="n"/>
+      <c r="BT2" s="9" t="n"/>
+      <c r="BU2" s="9" t="n"/>
+      <c r="BV2" s="9" t="n"/>
+      <c r="BW2" s="9" t="n"/>
+      <c r="BX2" s="9" t="n"/>
+      <c r="BY2" s="9" t="n"/>
+      <c r="BZ2" s="9" t="n"/>
+      <c r="CA2" s="9" t="n"/>
+      <c r="CB2" s="9" t="n"/>
+      <c r="CC2" s="9" t="n"/>
+      <c r="CD2" s="9" t="n"/>
+      <c r="CE2" s="9" t="n"/>
+      <c r="CF2" s="9" t="n"/>
+      <c r="CG2" s="9" t="n"/>
+      <c r="CH2" s="9" t="n"/>
+      <c r="CI2" s="9" t="n"/>
+      <c r="CJ2" s="9" t="n"/>
+      <c r="CK2" s="9" t="n"/>
+      <c r="CL2" s="9" t="n"/>
+      <c r="CM2" s="9" t="n"/>
+      <c r="CN2" s="9" t="n"/>
+      <c r="CO2" s="9" t="n"/>
+      <c r="CP2" s="9" t="n"/>
+      <c r="CQ2" s="9" t="n"/>
+      <c r="CR2" s="9" t="n"/>
+      <c r="CS2" s="9" t="n"/>
+      <c r="CT2" s="9" t="n"/>
+      <c r="CU2" s="9" t="n"/>
+      <c r="CV2" s="9" t="n"/>
+      <c r="CW2" s="9" t="n"/>
+      <c r="CX2" s="9" t="n"/>
+      <c r="CY2" s="9" t="n"/>
+      <c r="CZ2" s="9" t="n"/>
+      <c r="DA2" s="9" t="n"/>
+      <c r="DB2" s="9" t="n"/>
+      <c r="DC2" s="9" t="n"/>
+      <c r="DD2" s="9" t="n"/>
+      <c r="DE2" s="9" t="n"/>
+      <c r="DF2" s="9" t="n"/>
+      <c r="DG2" s="9" t="n"/>
+      <c r="DH2" s="9" t="n"/>
+      <c r="DI2" s="9" t="n"/>
+      <c r="DJ2" s="9" t="n"/>
+      <c r="DK2" s="9" t="n"/>
+      <c r="DL2" s="9" t="n"/>
+      <c r="DM2" s="9" t="n"/>
+      <c r="DN2" s="9" t="n"/>
+      <c r="DO2" s="9" t="n"/>
+      <c r="DP2" s="9" t="n"/>
+      <c r="DQ2" s="9" t="n"/>
+      <c r="DR2" s="9" t="n"/>
+      <c r="DS2" s="9" t="n"/>
+      <c r="DT2" s="9" t="n"/>
+      <c r="DU2" s="9" t="n"/>
+      <c r="DV2" s="9" t="n"/>
+      <c r="DW2" s="9" t="n"/>
+      <c r="DX2" s="9" t="n"/>
+      <c r="DY2" s="9" t="n"/>
+      <c r="DZ2" s="9" t="n"/>
+      <c r="EA2" s="9" t="n"/>
+      <c r="EB2" s="9" t="n"/>
+      <c r="EC2" s="9" t="n"/>
+      <c r="ED2" s="9" t="n"/>
+      <c r="EE2" s="9" t="n"/>
+      <c r="EF2" s="9" t="n"/>
+      <c r="EG2" s="9" t="n"/>
+      <c r="EH2" s="9" t="n"/>
+      <c r="EI2" s="9" t="n"/>
+      <c r="EJ2" s="9" t="n"/>
+      <c r="EK2" s="9" t="n"/>
+      <c r="EL2" s="9" t="n"/>
+      <c r="EM2" s="9" t="n"/>
+      <c r="EN2" s="9" t="n"/>
+      <c r="EO2" s="9" t="n"/>
+      <c r="EP2" s="9" t="n"/>
+      <c r="EQ2" s="9" t="n"/>
+      <c r="ER2" s="9" t="n"/>
+      <c r="ES2" s="9" t="n"/>
+      <c r="ET2" s="9" t="n"/>
+      <c r="EU2" s="9" t="n"/>
+      <c r="EV2" s="9" t="n"/>
+      <c r="EW2" s="9" t="n"/>
+      <c r="EX2" s="9" t="n"/>
+      <c r="EY2" s="9" t="n"/>
+      <c r="EZ2" s="9" t="n"/>
+      <c r="FA2" s="9" t="n"/>
+      <c r="FB2" s="9" t="n"/>
+      <c r="FC2" s="9" t="n"/>
+      <c r="FD2" s="9" t="n"/>
+      <c r="FE2" s="9" t="n"/>
+      <c r="FF2" s="9" t="n"/>
+      <c r="FG2" s="9" t="n"/>
+      <c r="FH2" s="9" t="n"/>
+      <c r="FI2" s="9" t="n"/>
+      <c r="FJ2" s="9" t="n"/>
+      <c r="FK2" s="9" t="n"/>
+      <c r="FL2" s="9" t="n"/>
+      <c r="FM2" s="9" t="n"/>
+      <c r="FN2" s="9" t="n"/>
+      <c r="FO2" s="9" t="n"/>
+      <c r="FP2" s="9" t="n"/>
+      <c r="FQ2" s="9" t="n"/>
+      <c r="FR2" s="9" t="n"/>
+      <c r="FS2" s="9" t="n"/>
+      <c r="FT2" s="9" t="n"/>
+      <c r="FU2" s="9" t="n"/>
+      <c r="FV2" s="9" t="n"/>
+      <c r="FW2" s="9" t="n"/>
+      <c r="FX2" s="9" t="n"/>
+      <c r="FY2" s="9" t="n"/>
+      <c r="FZ2" s="9" t="n"/>
+      <c r="GA2" s="9" t="n"/>
+      <c r="GB2" s="9" t="n"/>
+      <c r="GC2" s="9" t="n"/>
+      <c r="GD2" s="9" t="n"/>
+      <c r="GE2" s="9" t="n"/>
+      <c r="GF2" s="9" t="n"/>
+      <c r="GG2" s="9" t="n"/>
+      <c r="GH2" s="9" t="n"/>
+      <c r="GI2" s="9" t="n"/>
+      <c r="GJ2" s="9" t="n"/>
+      <c r="GK2" s="9" t="n"/>
+      <c r="GL2" s="9" t="n"/>
+      <c r="GM2" s="9" t="n"/>
+      <c r="GN2" s="9" t="n"/>
+      <c r="GO2" s="9" t="n"/>
+      <c r="GP2" s="9" t="n"/>
+      <c r="GQ2" s="9" t="n"/>
+      <c r="GR2" s="9" t="n"/>
+      <c r="GS2" s="9" t="n"/>
+      <c r="GT2" s="9" t="n"/>
+      <c r="GU2" s="9" t="n"/>
+      <c r="GV2" s="9" t="n"/>
+      <c r="GW2" s="9" t="n"/>
+      <c r="GX2" s="9" t="n"/>
+      <c r="GY2" s="9" t="n"/>
+      <c r="GZ2" s="9" t="n"/>
+      <c r="HA2" s="9" t="n"/>
+      <c r="HB2" s="10" t="n"/>
+      <c r="HC2" s="10" t="n"/>
+      <c r="HD2" s="10" t="n"/>
+      <c r="HE2" s="10" t="n"/>
+      <c r="HF2" s="10" t="n"/>
+      <c r="HG2" s="10" t="n"/>
+      <c r="HH2" s="10" t="n"/>
+      <c r="HI2" s="10" t="n"/>
+      <c r="HJ2" s="10" t="n"/>
+      <c r="HK2" s="10" t="n"/>
+      <c r="HL2" s="10" t="n"/>
+      <c r="HM2" s="10" t="n"/>
+      <c r="HN2" s="10" t="n"/>
+      <c r="HO2" s="10" t="n"/>
+      <c r="HP2" s="10" t="n"/>
+      <c r="HQ2" s="10" t="n"/>
+      <c r="HR2" s="10" t="n"/>
+      <c r="HS2" s="10" t="n"/>
+      <c r="HT2" s="10" t="n"/>
+      <c r="HU2" s="10" t="n"/>
+      <c r="HV2" s="10" t="n"/>
+      <c r="HW2" s="10" t="n"/>
+      <c r="HX2" s="10" t="n"/>
+      <c r="HY2" s="10" t="n"/>
+      <c r="HZ2" s="10" t="n"/>
+      <c r="IA2" s="10" t="n"/>
+      <c r="IB2" s="10" t="n"/>
+      <c r="IC2" s="10" t="n"/>
+      <c r="ID2" s="10" t="n"/>
+      <c r="IE2" s="10" t="n"/>
+      <c r="IF2" s="10" t="n"/>
+      <c r="IG2" s="10" t="n"/>
+      <c r="IH2" s="10" t="n"/>
+      <c r="II2" s="10" t="n"/>
+      <c r="IJ2" s="10" t="n"/>
+      <c r="IK2" s="10" t="n"/>
+      <c r="IL2" s="10" t="n"/>
+      <c r="IM2" s="10" t="n"/>
+      <c r="IN2" s="10" t="n"/>
+      <c r="IO2" s="10" t="n"/>
+      <c r="IP2" s="10" t="n"/>
+      <c r="IQ2" s="10" t="n"/>
+      <c r="IR2" s="10" t="n"/>
+      <c r="IS2" s="10" t="n"/>
+      <c r="IT2" s="10" t="n"/>
+      <c r="IU2" s="10" t="n"/>
+      <c r="IV2" s="10" t="n"/>
+      <c r="IW2" s="10" t="n"/>
+      <c r="IX2" s="10" t="n"/>
+      <c r="IY2" s="10" t="n"/>
+      <c r="IZ2" s="10" t="n"/>
+      <c r="JA2" s="10" t="n"/>
+      <c r="JB2" s="10" t="n"/>
+      <c r="JC2" s="10" t="n"/>
+      <c r="JD2" s="10" t="n"/>
+      <c r="JE2" s="10" t="n"/>
+      <c r="JF2" s="10" t="n"/>
+      <c r="JG2" s="10" t="n"/>
+      <c r="JH2" s="10" t="n"/>
+      <c r="JI2" s="10" t="n"/>
+      <c r="JJ2" s="10" t="n"/>
+      <c r="JK2" s="10" t="n"/>
+      <c r="JL2" s="10" t="n"/>
+      <c r="JM2" s="10" t="n"/>
+      <c r="JN2" s="10" t="n"/>
+      <c r="JO2" s="10" t="n"/>
+      <c r="JP2" s="10" t="n"/>
+      <c r="JQ2" s="10" t="n"/>
+      <c r="JR2" s="10" t="n"/>
+      <c r="JS2" s="10" t="n"/>
+      <c r="JT2" s="10" t="n"/>
+      <c r="JU2" s="10" t="n"/>
+      <c r="JV2" s="10" t="n"/>
+      <c r="JW2" s="10" t="n"/>
+      <c r="JX2" s="10" t="n"/>
+      <c r="JY2" s="10" t="n"/>
+      <c r="JZ2" s="10" t="n"/>
+      <c r="KA2" s="10" t="n"/>
+      <c r="KB2" s="10" t="n"/>
+      <c r="KC2" s="10" t="n"/>
+      <c r="KD2" s="10" t="n"/>
+      <c r="KE2" s="10" t="n"/>
+      <c r="KF2" s="10" t="n"/>
+      <c r="KG2" s="10" t="n"/>
+      <c r="KH2" s="10" t="n"/>
+      <c r="KI2" s="10" t="n"/>
+      <c r="KJ2" s="10" t="n"/>
+      <c r="KK2" s="10" t="n"/>
+      <c r="KL2" s="10" t="n"/>
+      <c r="KM2" s="10" t="n"/>
+      <c r="KN2" s="10" t="n"/>
+      <c r="KO2" s="10" t="n"/>
+      <c r="KP2" s="10" t="n"/>
+      <c r="KQ2" s="10" t="n"/>
+      <c r="KR2" s="10" t="n"/>
+      <c r="KS2" s="10" t="n"/>
+      <c r="KT2" s="10" t="n"/>
+      <c r="KU2" s="10" t="n"/>
+      <c r="KV2" s="10" t="n"/>
+      <c r="KW2" s="10" t="n"/>
+      <c r="KX2" s="10" t="n"/>
+      <c r="KY2" s="10" t="n"/>
+      <c r="KZ2" s="10" t="n"/>
+      <c r="LA2" s="10" t="n"/>
+      <c r="LB2" s="10" t="n"/>
+      <c r="LC2" s="10" t="n"/>
+      <c r="LD2" s="10" t="n"/>
+      <c r="LE2" s="10" t="n"/>
+      <c r="LF2" s="10" t="n"/>
+      <c r="LG2" s="10" t="n"/>
+      <c r="LH2" s="10" t="n"/>
+      <c r="LI2" s="10" t="n"/>
+      <c r="LJ2" s="10" t="n"/>
+      <c r="LK2" s="10" t="n"/>
+      <c r="LL2" s="10" t="n"/>
+      <c r="LM2" s="10" t="n"/>
+      <c r="LN2" s="10" t="n"/>
+      <c r="LO2" s="10" t="n"/>
+      <c r="LP2" s="10" t="n"/>
+      <c r="LQ2" s="10" t="n"/>
+      <c r="LR2" s="10" t="n"/>
+      <c r="LS2" s="10" t="n"/>
+      <c r="LT2" s="10" t="n"/>
+      <c r="LU2" s="10" t="n"/>
+      <c r="LV2" s="10" t="n"/>
+      <c r="LW2" s="10" t="n"/>
+      <c r="LX2" s="10" t="n"/>
+      <c r="LY2" s="10" t="n"/>
+      <c r="LZ2" s="10" t="n"/>
+      <c r="MA2" s="10" t="n"/>
+      <c r="MB2" s="10" t="n"/>
+      <c r="MC2" s="10" t="n"/>
+      <c r="MD2" s="10" t="n"/>
+      <c r="ME2" s="10" t="n"/>
+      <c r="MF2" s="10" t="n"/>
+      <c r="MG2" s="10" t="n"/>
+      <c r="MH2" s="10" t="n"/>
+      <c r="MI2" s="10" t="n"/>
+      <c r="MJ2" s="10" t="n"/>
+      <c r="MK2" s="10" t="n"/>
+      <c r="ML2" s="10" t="n"/>
+      <c r="MM2" s="10" t="n"/>
+      <c r="MN2" s="10" t="n"/>
+      <c r="MO2" s="10" t="n"/>
+      <c r="MP2" s="10" t="n"/>
+      <c r="MQ2" s="10" t="n"/>
+      <c r="MR2" s="10" t="n"/>
+      <c r="MS2" s="10" t="n"/>
+      <c r="MT2" s="10" t="n"/>
+      <c r="MU2" s="10" t="n"/>
+      <c r="MV2" s="10" t="n"/>
+      <c r="MW2" s="10" t="n"/>
+      <c r="MX2" s="10" t="n"/>
+      <c r="MY2" s="10" t="n"/>
+      <c r="MZ2" s="10" t="n"/>
+      <c r="NA2" s="10" t="n"/>
+      <c r="NB2" s="10" t="n"/>
+      <c r="NC2" s="10" t="n"/>
+      <c r="ND2" s="10" t="n"/>
+      <c r="NE2" s="10" t="n"/>
+      <c r="NF2" s="10" t="n"/>
+      <c r="NG2" s="10" t="n"/>
+      <c r="NH2" s="10" t="n"/>
+      <c r="NI2" s="10" t="n"/>
+      <c r="NJ2" s="10" t="n"/>
+      <c r="NK2" s="10" t="n"/>
+      <c r="NL2" s="10" t="n"/>
+      <c r="NM2" s="10" t="n"/>
+      <c r="NN2" s="10" t="n"/>
+      <c r="NO2" s="10" t="n"/>
+      <c r="NP2" s="10" t="n"/>
+      <c r="NQ2" s="10" t="n"/>
+      <c r="NR2" s="10" t="n"/>
+      <c r="NS2" s="10" t="n"/>
+      <c r="NT2" s="10" t="n"/>
+      <c r="NU2" s="10" t="n"/>
+      <c r="NV2" s="10" t="n"/>
+      <c r="NW2" s="10" t="n"/>
+      <c r="NX2" s="10" t="n"/>
+      <c r="NY2" s="10" t="n"/>
+      <c r="NZ2" s="10" t="n"/>
+      <c r="OA2" s="10" t="n"/>
+      <c r="OB2" s="10" t="n"/>
+      <c r="OC2" s="10" t="n"/>
+      <c r="OD2" s="10" t="n"/>
+      <c r="OE2" s="10" t="n"/>
+      <c r="OF2" s="10" t="n"/>
+      <c r="OG2" s="10" t="n"/>
+      <c r="OH2" s="10" t="n"/>
+      <c r="OI2" s="10" t="n"/>
+      <c r="OJ2" s="10" t="n"/>
+      <c r="OK2" s="10" t="n"/>
+      <c r="OL2" s="10" t="n"/>
+      <c r="OM2" s="10" t="n"/>
+      <c r="ON2" s="10" t="n"/>
+      <c r="OO2" s="10" t="n"/>
+      <c r="OP2" s="10" t="n"/>
+      <c r="OQ2" s="10" t="n"/>
+      <c r="OR2" s="10" t="n"/>
+      <c r="OS2" s="10" t="n"/>
+      <c r="OT2" s="10" t="n"/>
+      <c r="OU2" s="10" t="n"/>
+      <c r="OV2" s="10" t="n"/>
+      <c r="OW2" s="10" t="n"/>
+      <c r="OX2" s="10" t="n"/>
+      <c r="OY2" s="10" t="n"/>
+      <c r="OZ2" s="10" t="n"/>
+      <c r="PA2" s="10" t="n"/>
+      <c r="PB2" s="10" t="n"/>
+      <c r="PC2" s="10" t="n"/>
+      <c r="PD2" s="10" t="n"/>
+      <c r="PE2" s="10" t="n"/>
+      <c r="PF2" s="10" t="n"/>
+      <c r="PG2" s="10" t="n"/>
+      <c r="PH2" s="10" t="n"/>
+      <c r="PI2" s="10" t="n"/>
+      <c r="PJ2" s="10" t="n"/>
+      <c r="PK2" s="10" t="n"/>
+      <c r="PL2" s="10" t="n"/>
+      <c r="PM2" s="10" t="n"/>
+      <c r="PN2" s="10" t="n"/>
+      <c r="PO2" s="10" t="n"/>
+      <c r="PP2" s="10" t="n"/>
+      <c r="PQ2" s="10" t="n"/>
+      <c r="PR2" s="10" t="n"/>
+      <c r="PS2" s="10" t="n"/>
+      <c r="PT2" s="10" t="n"/>
+      <c r="PU2" s="10" t="n"/>
+      <c r="PV2" s="10" t="n"/>
+      <c r="PW2" s="10" t="n"/>
+      <c r="PX2" s="10" t="n"/>
+      <c r="PY2" s="10" t="n"/>
+      <c r="PZ2" s="10" t="n"/>
+      <c r="QA2" s="10" t="n"/>
+      <c r="QB2" s="10" t="n"/>
+      <c r="QC2" s="10" t="n"/>
+      <c r="QD2" s="10" t="n"/>
+      <c r="QE2" s="10" t="n"/>
+      <c r="QF2" s="10" t="n"/>
+      <c r="QG2" s="10" t="n"/>
+      <c r="QH2" s="10" t="n"/>
+      <c r="QI2" s="10" t="n"/>
+      <c r="QJ2" s="10" t="n"/>
+      <c r="QK2" s="10" t="n"/>
+      <c r="QL2" s="10" t="n"/>
+      <c r="QM2" s="10" t="n"/>
+      <c r="QN2" s="10" t="n"/>
+      <c r="QO2" s="10" t="n"/>
+      <c r="QP2" s="10" t="n"/>
+      <c r="QQ2" s="10" t="n"/>
+      <c r="QR2" s="10" t="n"/>
+      <c r="QS2" s="10" t="n"/>
+      <c r="QT2" s="10" t="n"/>
+      <c r="QU2" s="10" t="n"/>
+      <c r="QV2" s="10" t="n"/>
+      <c r="QW2" s="10" t="n"/>
+      <c r="QX2" s="10" t="n"/>
+      <c r="QY2" s="10" t="n"/>
+      <c r="QZ2" s="10" t="n"/>
+      <c r="RA2" s="10" t="n"/>
+      <c r="RB2" s="10" t="n"/>
+      <c r="RC2" s="10" t="n"/>
+      <c r="RD2" s="10" t="n"/>
+      <c r="RE2" s="10" t="n"/>
+      <c r="RF2" s="10" t="n"/>
+      <c r="RG2" s="10" t="n"/>
+      <c r="RH2" s="10" t="n"/>
+      <c r="RI2" s="10" t="n"/>
+      <c r="RJ2" s="10" t="n"/>
+      <c r="RK2" s="10" t="n"/>
+      <c r="RL2" s="10" t="n"/>
+      <c r="RM2" s="10" t="n"/>
+      <c r="RN2" s="10" t="n"/>
+      <c r="RO2" s="10" t="n"/>
+      <c r="RP2" s="10" t="n"/>
+      <c r="RQ2" s="10" t="n"/>
+      <c r="RR2" s="10" t="n"/>
+      <c r="RS2" s="10" t="n"/>
+      <c r="RT2" s="10" t="n"/>
+      <c r="RU2" s="10" t="n"/>
+      <c r="RV2" s="10" t="n"/>
+      <c r="RW2" s="10" t="n"/>
+      <c r="RX2" s="10" t="n"/>
+      <c r="RY2" s="10" t="n"/>
+      <c r="RZ2" s="10" t="n"/>
+      <c r="SA2" s="10" t="n"/>
+      <c r="SB2" s="10" t="n"/>
+      <c r="SC2" s="10" t="n"/>
+      <c r="SD2" s="10" t="n"/>
+      <c r="SE2" s="10" t="n"/>
+      <c r="SF2" s="10" t="n"/>
+      <c r="SG2" s="10" t="n"/>
+      <c r="SH2" s="10" t="n"/>
+      <c r="SI2" s="10" t="n"/>
+      <c r="SJ2" s="10" t="n"/>
+      <c r="SK2" s="10" t="n"/>
+      <c r="SL2" s="10" t="n"/>
+      <c r="SM2" s="10" t="n"/>
+      <c r="SN2" s="10" t="n"/>
+      <c r="SO2" s="10" t="n"/>
+      <c r="SP2" s="10" t="n"/>
+      <c r="SQ2" s="10" t="n"/>
+      <c r="SR2" s="10" t="n"/>
+      <c r="SS2" s="10" t="n"/>
+      <c r="ST2" s="10" t="n"/>
+      <c r="SU2" s="10" t="n"/>
+      <c r="SV2" s="10" t="n"/>
+      <c r="SW2" s="10" t="n"/>
+      <c r="SX2" s="10" t="n"/>
+      <c r="SY2" s="10" t="n"/>
+      <c r="SZ2" s="10" t="n"/>
+      <c r="TA2" s="10" t="n"/>
+      <c r="TB2" s="10" t="n"/>
+      <c r="TC2" s="10" t="n"/>
+      <c r="TD2" s="10" t="n"/>
+      <c r="TE2" s="10" t="n"/>
+      <c r="TF2" s="10" t="n"/>
+      <c r="TG2" s="10" t="n"/>
+      <c r="TH2" s="10" t="n"/>
+      <c r="TI2" s="10" t="n"/>
+      <c r="TJ2" s="10" t="n"/>
+      <c r="TK2" s="10" t="n"/>
+      <c r="TL2" s="10" t="n"/>
+      <c r="TM2" s="10" t="n"/>
+      <c r="TN2" s="10" t="n"/>
+      <c r="TO2" s="10" t="n"/>
+      <c r="TP2" s="10" t="n"/>
+      <c r="TQ2" s="10" t="n"/>
+      <c r="TR2" s="10" t="n"/>
+      <c r="TS2" s="10" t="n"/>
+      <c r="TT2" s="10" t="n"/>
+      <c r="TU2" s="10" t="n"/>
+      <c r="TV2" s="10" t="n"/>
+      <c r="TW2" s="10" t="n"/>
+      <c r="TX2" s="10" t="n"/>
+      <c r="TY2" s="10" t="n"/>
+      <c r="TZ2" s="10" t="n"/>
+      <c r="UA2" s="10" t="n"/>
+      <c r="UB2" s="10" t="n"/>
+      <c r="UC2" s="10" t="n"/>
+      <c r="UD2" s="10" t="n"/>
+      <c r="UE2" s="10" t="n"/>
+      <c r="UF2" s="10" t="n"/>
+      <c r="UG2" s="10" t="n"/>
+      <c r="UH2" s="10" t="n"/>
+      <c r="UI2" s="10" t="n"/>
+      <c r="UJ2" s="10" t="n"/>
+      <c r="UK2" s="10" t="n"/>
+      <c r="UL2" s="10" t="n"/>
+      <c r="UM2" s="10" t="n"/>
+      <c r="UN2" s="10" t="n"/>
+      <c r="UO2" s="10" t="n"/>
+      <c r="UP2" s="10" t="n"/>
+      <c r="UQ2" s="10" t="n"/>
+      <c r="UR2" s="10" t="n"/>
+      <c r="US2" s="10" t="n"/>
+      <c r="UT2" s="10" t="n"/>
+      <c r="UU2" s="10" t="n"/>
+      <c r="UV2" s="10" t="n"/>
+      <c r="UW2" s="10" t="n"/>
+      <c r="UX2" s="10" t="n"/>
+      <c r="UY2" s="10" t="n"/>
+      <c r="UZ2" s="10" t="n"/>
+      <c r="VA2" s="10" t="n"/>
+      <c r="VB2" s="10" t="n"/>
+      <c r="VC2" s="10" t="n"/>
+      <c r="VD2" s="10" t="n"/>
+      <c r="VE2" s="10" t="n"/>
+      <c r="VF2" s="10" t="n"/>
+      <c r="VG2" s="10" t="n"/>
+      <c r="VH2" s="10" t="n"/>
+      <c r="VI2" s="10" t="n"/>
+      <c r="VJ2" s="10" t="n"/>
+      <c r="VK2" s="10" t="n"/>
+      <c r="VL2" s="10" t="n"/>
+      <c r="VM2" s="10" t="n"/>
+      <c r="VN2" s="10" t="n"/>
+      <c r="VO2" s="10" t="n"/>
+      <c r="VP2" s="10" t="n"/>
+      <c r="VQ2" s="10" t="n"/>
+      <c r="VR2" s="10" t="n"/>
+      <c r="VS2" s="10" t="n"/>
+      <c r="VT2" s="10" t="n"/>
+      <c r="VU2" s="10" t="n"/>
+      <c r="VV2" s="10" t="n"/>
+      <c r="VW2" s="10" t="n"/>
+      <c r="VX2" s="10" t="n"/>
+      <c r="VY2" s="10" t="n"/>
+      <c r="VZ2" s="10" t="n"/>
+      <c r="WA2" s="10" t="n"/>
+      <c r="WB2" s="10" t="n"/>
+      <c r="WC2" s="10" t="n"/>
+      <c r="WD2" s="10" t="n"/>
+      <c r="WE2" s="10" t="n"/>
+      <c r="WF2" s="10" t="n"/>
+      <c r="WG2" s="10" t="n"/>
+      <c r="WH2" s="10" t="n"/>
+      <c r="WI2" s="10" t="n"/>
+      <c r="WJ2" s="10" t="n"/>
+      <c r="WK2" s="10" t="n"/>
+      <c r="WL2" s="10" t="n"/>
+      <c r="WM2" s="10" t="n"/>
+      <c r="WN2" s="10" t="n"/>
+      <c r="WO2" s="10" t="n"/>
+      <c r="WP2" s="10" t="n"/>
+      <c r="WQ2" s="10" t="n"/>
+      <c r="WR2" s="10" t="n"/>
+      <c r="WS2" s="10" t="n"/>
+      <c r="WT2" s="10" t="n"/>
+      <c r="WU2" s="10" t="n"/>
+      <c r="WV2" s="10" t="n"/>
+      <c r="WW2" s="10" t="n"/>
+      <c r="WX2" s="10" t="n"/>
+      <c r="WY2" s="10" t="n"/>
+      <c r="WZ2" s="10" t="n"/>
+      <c r="XA2" s="10" t="n"/>
+      <c r="XB2" s="10" t="n"/>
+      <c r="XC2" s="10" t="n"/>
+      <c r="XD2" s="10" t="n"/>
+      <c r="XE2" s="10" t="n"/>
+      <c r="XF2" s="10" t="n"/>
+      <c r="XG2" s="10" t="n"/>
+      <c r="XH2" s="10" t="n"/>
+      <c r="XI2" s="10" t="n"/>
+      <c r="XJ2" s="10" t="n"/>
+      <c r="XK2" s="10" t="n"/>
+      <c r="XL2" s="10" t="n"/>
+      <c r="XM2" s="10" t="n"/>
+      <c r="XN2" s="10" t="n"/>
+      <c r="XO2" s="10" t="n"/>
+      <c r="XP2" s="10" t="n"/>
+      <c r="XQ2" s="10" t="n"/>
+      <c r="XR2" s="10" t="n"/>
+      <c r="XS2" s="10" t="n"/>
+      <c r="XT2" s="10" t="n"/>
+      <c r="XU2" s="10" t="n"/>
+      <c r="XV2" s="10" t="n"/>
+      <c r="XW2" s="10" t="n"/>
+      <c r="XX2" s="10" t="n"/>
+      <c r="XY2" s="10" t="n"/>
+      <c r="XZ2" s="10" t="n"/>
+      <c r="YA2" s="10" t="n"/>
+      <c r="YB2" s="10" t="n"/>
+      <c r="YC2" s="10" t="n"/>
+      <c r="YD2" s="10" t="n"/>
+      <c r="YE2" s="10" t="n"/>
+      <c r="YF2" s="10" t="n"/>
+      <c r="YG2" s="10" t="n"/>
+      <c r="YH2" s="10" t="n"/>
+      <c r="YI2" s="10" t="n"/>
+      <c r="YJ2" s="10" t="n"/>
+      <c r="YK2" s="10" t="n"/>
+      <c r="YL2" s="10" t="n"/>
+      <c r="YM2" s="10" t="n"/>
+      <c r="YN2" s="10" t="n"/>
+      <c r="YO2" s="10" t="n"/>
+      <c r="YP2" s="10" t="n"/>
+      <c r="YQ2" s="10" t="n"/>
+      <c r="YR2" s="10" t="n"/>
+      <c r="YS2" s="10" t="n"/>
+      <c r="YT2" s="10" t="n"/>
+      <c r="YU2" s="10" t="n"/>
+      <c r="YV2" s="10" t="n"/>
+      <c r="YW2" s="10" t="n"/>
+      <c r="YX2" s="10" t="n"/>
+      <c r="YY2" s="10" t="n"/>
+      <c r="YZ2" s="10" t="n"/>
+      <c r="ZA2" s="10" t="n"/>
+      <c r="ZB2" s="10" t="n"/>
+      <c r="ZC2" s="10" t="n"/>
+      <c r="ZD2" s="10" t="n"/>
+      <c r="ZE2" s="10" t="n"/>
+      <c r="ZF2" s="10" t="n"/>
+      <c r="ZG2" s="10" t="n"/>
+      <c r="ZH2" s="10" t="n"/>
+      <c r="ZI2" s="10" t="n"/>
+      <c r="ZJ2" s="10" t="n"/>
+      <c r="ZK2" s="10" t="n"/>
+      <c r="ZL2" s="10" t="n"/>
+      <c r="ZM2" s="10" t="n"/>
+      <c r="ZN2" s="10" t="n"/>
+      <c r="ZO2" s="10" t="n"/>
+      <c r="ZP2" s="10" t="n"/>
+      <c r="ZQ2" s="10" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="n">
-        <v>3.06333513865784</v>
-      </c>
-      <c r="C1" t="n">
-        <v>4.969480335136774</v>
-      </c>
-      <c r="D1" t="n">
-        <v>6.903183631835497</v>
-      </c>
-      <c r="E1" t="n">
-        <v>8.921377202387516</v>
-      </c>
-      <c r="F1" t="n">
-        <v>10.87168641311016</v>
-      </c>
-      <c r="G1" t="n">
-        <v>12.79104239245185</v>
-      </c>
-      <c r="H1" t="n">
-        <v>14.80832674159909</v>
-      </c>
-      <c r="I1" t="n">
-        <v>16.62613124335098</v>
-      </c>
-      <c r="J1" t="n">
-        <v>18.73540606967725</v>
-      </c>
-      <c r="K1" t="n">
-        <v>20.8086201974007</v>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.51838176104117</v>
+      </c>
+      <c r="E3" t="n">
+        <v>59.08622549647195</v>
+      </c>
+      <c r="F3" t="n">
+        <v>89.29968209043334</v>
+      </c>
+      <c r="G3" t="n">
+        <v>135.1161311011532</v>
+      </c>
+      <c r="H3" t="n">
+        <v>194.5164275301061</v>
+      </c>
+      <c r="I3" t="n">
+        <v>279.1353896458276</v>
+      </c>
+      <c r="J3" t="n">
+        <v>396.1949949367495</v>
+      </c>
+      <c r="K3" t="n">
+        <v>558.1099061899354</v>
+      </c>
+      <c r="L3" t="n">
+        <v>783.3671427738657</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1095.867822374897</v>
+      </c>
+      <c r="N3" t="n">
+        <v>61.97705078125</v>
+      </c>
+      <c r="O3" t="n">
+        <v>61.988525390625</v>
+      </c>
+      <c r="P3" t="n">
+        <v>61.9942626953125</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>61.99713134765625</v>
+      </c>
+      <c r="R3" t="n">
+        <v>61.99856567382812</v>
+      </c>
+      <c r="S3" t="n">
+        <v>61.99928283691406</v>
+      </c>
+      <c r="T3" t="n">
+        <v>61.99964141845703</v>
+      </c>
+      <c r="U3" t="n">
+        <v>61.99982070922852</v>
+      </c>
+      <c r="V3" t="n">
+        <v>61.99991035461426</v>
+      </c>
+      <c r="W3" t="n">
+        <v>61.99995517730713</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1352,310 +1352,310 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>4.820319857976689</v>
+        <v>-1.626071597644477</v>
       </c>
       <c r="D4" t="n">
-        <v>8.590120631292399</v>
+        <v>0.6502048890988242</v>
       </c>
       <c r="E4" t="n">
-        <v>14.19611387020497</v>
+        <v>1.467696186510566</v>
       </c>
       <c r="F4" t="n">
-        <v>21.41988437487781</v>
+        <v>0.319655191196398</v>
       </c>
       <c r="G4" t="n">
-        <v>31.12978605655892</v>
+        <v>-0.863293090340523</v>
       </c>
       <c r="H4" t="n">
-        <v>43.85611663071357</v>
+        <v>-0.6446677353820698</v>
       </c>
       <c r="I4" t="n">
-        <v>60.82772632953829</v>
+        <v>0.2826779900757733</v>
       </c>
       <c r="J4" t="n">
-        <v>83.4198718359693</v>
+        <v>0.5291298833320589</v>
       </c>
       <c r="K4" t="n">
-        <v>113.3314547440985</v>
+        <v>0.08829658378450575</v>
       </c>
       <c r="L4" t="n">
-        <v>153.0786945109632</v>
+        <v>-0.3761970190911153</v>
       </c>
       <c r="M4" t="n">
-        <v>205.7565443983771</v>
+        <v>-0.2031418192275757</v>
       </c>
       <c r="N4" t="n">
-        <v>275.8085828444711</v>
+        <v>0.2229028195143523</v>
       </c>
       <c r="O4" t="n">
-        <v>368.7027666931727</v>
+        <v>0.2809005980832062</v>
       </c>
       <c r="P4" t="n">
-        <v>492.064881820014</v>
+        <v>0.04398779746303785</v>
       </c>
       <c r="Q4" t="n">
-        <v>655.7460796740548</v>
+        <v>-0.1983558933826383</v>
       </c>
       <c r="R4" t="n">
-        <v>873.0133449831148</v>
+        <v>-0.1581592894713032</v>
       </c>
       <c r="S4" t="n">
-        <v>1161.438447404469</v>
+        <v>0.02557115536110097</v>
       </c>
       <c r="T4" t="n">
-        <v>1544.287201651206</v>
+        <v>0.06777046449952503</v>
       </c>
       <c r="U4" t="n">
-        <v>2052.455122714302</v>
+        <v>-0.03428342655281685</v>
       </c>
       <c r="V4" t="n">
-        <v>2726.991347996822</v>
+        <v>-0.03848179075042878</v>
       </c>
       <c r="W4" t="n">
-        <v>3622.318674064481</v>
+        <v>0.01809633729328037</v>
       </c>
       <c r="X4" t="n">
-        <v>4810.708055750875</v>
+        <v>0.02338986823666556</v>
       </c>
       <c r="Y4" t="n">
-        <v>6388.167065742587</v>
+        <v>-0.01109091832794673</v>
       </c>
       <c r="Z4" t="n">
-        <v>8482.023312177054</v>
+        <v>0.01527252974304562</v>
       </c>
       <c r="AA4" t="n">
-        <v>11261.30901648382</v>
+        <v>0.06170153196004777</v>
       </c>
       <c r="AB4" t="n">
-        <v>14950.53521380217</v>
+        <v>0.02406800184989254</v>
       </c>
       <c r="AC4" t="n">
-        <v>19847.36904439103</v>
+        <v>0.0130475362910638</v>
       </c>
       <c r="AD4" t="n">
-        <v>26347.29904437236</v>
+        <v>-0.002687717199981008</v>
       </c>
       <c r="AE4" t="n">
-        <v>34975.04335793968</v>
+        <v>-0.03795074482078613</v>
       </c>
       <c r="AF4" t="n">
-        <v>46427.08001379429</v>
+        <v>-0.06812296518753921</v>
       </c>
       <c r="AG4" t="n">
-        <v>61628.21235217158</v>
+        <v>-0.04252577751078132</v>
       </c>
       <c r="AH4" t="n">
-        <v>81805.46435247033</v>
+        <v>-0.04891037080317926</v>
       </c>
       <c r="AI4" t="n">
-        <v>108588.135936449</v>
+        <v>-0.04862979231399518</v>
       </c>
       <c r="AJ4" t="n">
-        <v>144138.3517997675</v>
+        <v>-0.02055860888585485</v>
       </c>
       <c r="AK4" t="n">
-        <v>191326.3559068655</v>
+        <v>0.01434222566900278</v>
       </c>
       <c r="AL4" t="n">
-        <v>253961.9103219587</v>
+        <v>0.06209031768689265</v>
       </c>
       <c r="AM4" t="n">
-        <v>337101.8673904047</v>
+        <v>-0.04388959703528852</v>
       </c>
       <c r="AN4" t="n">
-        <v>447458.9163544049</v>
+        <v>-0.01941022933056551</v>
       </c>
       <c r="AO4" t="n">
-        <v>593942.4387326621</v>
+        <v>-0.01444850830332039</v>
       </c>
       <c r="AP4" t="n">
-        <v>788379.2281024442</v>
+        <v>0.07124997265848462</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1046467.120639157</v>
+        <v>0.05073718588902217</v>
       </c>
       <c r="AR4" t="n">
-        <v>1389043.16838952</v>
+        <v>-0.02008623374845896</v>
       </c>
       <c r="AS4" t="n">
-        <v>1843765.524505597</v>
+        <v>-0.01818745624785006</v>
       </c>
       <c r="AT4" t="n">
-        <v>2447346.63910841</v>
+        <v>0.08193789129716303</v>
       </c>
       <c r="AU4" t="n">
-        <v>3248517.194042645</v>
+        <v>-0.02056883647199055</v>
       </c>
       <c r="AV4" t="n">
-        <v>4311960.408789068</v>
+        <v>-0.05828618852843119</v>
       </c>
       <c r="AW4" t="n">
-        <v>5723534.428477735</v>
+        <v>-0.1186245801490347</v>
       </c>
       <c r="AX4" t="n">
-        <v>7597203.752411366</v>
+        <v>0.001264074441202641</v>
       </c>
       <c r="AY4" t="n">
-        <v>10084241.0954448</v>
+        <v>0.08463676642653059</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13385439.50133215</v>
+        <v>-0.0213051137796419</v>
       </c>
       <c r="BA4" t="n">
-        <v>17767324.35158774</v>
+        <v>-0.1165756873456339</v>
       </c>
       <c r="BB4" t="n">
-        <v>23583671.14794743</v>
+        <v>-0.00657725522867645</v>
       </c>
       <c r="BC4" t="n">
-        <v>31304068.06879348</v>
+        <v>0.1633660252498251</v>
       </c>
       <c r="BD4" t="n">
-        <v>41551828.2693219</v>
+        <v>0.09482466557469657</v>
       </c>
       <c r="BE4" t="n">
-        <v>55154314.18203353</v>
+        <v>-0.01497126598326161</v>
       </c>
       <c r="BF4" t="n">
-        <v>73209735.1441945</v>
+        <v>-0.04083034325382382</v>
       </c>
       <c r="BG4" t="n">
-        <v>97175812.06828071</v>
+        <v>0.009500159307354136</v>
       </c>
       <c r="BH4" t="n">
-        <v>128987468.1866901</v>
+        <v>0.05307971248424311</v>
       </c>
       <c r="BI4" t="n">
-        <v>171213047.0558099</v>
+        <v>-0.04765559309760763</v>
       </c>
       <c r="BJ4" t="n">
-        <v>227261669.4287048</v>
+        <v>-0.01618038714544884</v>
       </c>
       <c r="BK4" t="n">
-        <v>301658472.3766985</v>
+        <v>0.07954919460741799</v>
       </c>
       <c r="BL4" t="n">
-        <v>400409950.4293097</v>
+        <v>0.0914421910735557</v>
       </c>
       <c r="BM4" t="n">
-        <v>531488894.9028094</v>
+        <v>-0.0623906582164947</v>
       </c>
       <c r="BN4" t="n">
-        <v>705478085.1594962</v>
+        <v>-0.08044526296793986</v>
       </c>
       <c r="BO4" t="n">
-        <v>936424698.5172763</v>
+        <v>0.007234316021627816</v>
       </c>
       <c r="BP4" t="n">
-        <v>1242974422.385726</v>
+        <v>0.01279729551797511</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1649876830.853325</v>
+        <v>0.01985185461517955</v>
       </c>
       <c r="BR4" t="n">
-        <v>2189983564.342668</v>
+        <v>-0.03261846648801856</v>
       </c>
       <c r="BS4" t="n">
-        <v>2906900637.018417</v>
+        <v>-0.03980828558022176</v>
       </c>
       <c r="BT4" t="n">
-        <v>3858509008.676337</v>
+        <v>-0.006672328644150204</v>
       </c>
       <c r="BU4" t="n">
-        <v>5121637656.903895</v>
+        <v>-0.07718009317382611</v>
       </c>
       <c r="BV4" t="n">
-        <v>6798266435.588354</v>
+        <v>-0.0700175948664272</v>
       </c>
       <c r="BW4" t="n">
-        <v>9023759512.198425</v>
+        <v>0.0205113286060295</v>
       </c>
       <c r="BX4" t="n">
-        <v>11977794118.68498</v>
+        <v>0.09031088440503086</v>
       </c>
       <c r="BY4" t="n">
-        <v>15898866957.44921</v>
+        <v>0.06873251993356388</v>
       </c>
       <c r="BZ4" t="n">
-        <v>21103549453.06534</v>
+        <v>-0.1152730504285116</v>
       </c>
       <c r="CA4" t="n">
-        <v>28012046436.64921</v>
+        <v>-0.04888163476228767</v>
       </c>
       <c r="CB4" t="n">
-        <v>37182121770.46754</v>
+        <v>0.09977983192452736</v>
       </c>
       <c r="CC4" t="n">
-        <v>49354129926.00806</v>
+        <v>0.1795984647307821</v>
       </c>
       <c r="CD4" t="n">
-        <v>65510789184.10995</v>
+        <v>0.06332785300936387</v>
       </c>
       <c r="CE4" t="n">
-        <v>86956522299.44046</v>
+        <v>-0.09444756477253204</v>
       </c>
       <c r="CF4" t="n">
-        <v>115422770272.4696</v>
+        <v>-0.1677700281452596</v>
       </c>
       <c r="CG4" t="n">
-        <v>153207781831.5883</v>
+        <v>-0.03914298052674849</v>
       </c>
       <c r="CH4" t="n">
-        <v>203362164660.0174</v>
+        <v>0.1703412143702666</v>
       </c>
       <c r="CI4" t="n">
-        <v>269935179014.1236</v>
+        <v>0.04563707248126943</v>
       </c>
       <c r="CJ4" t="n">
-        <v>358301658477.2979</v>
+        <v>-0.1322744984746227</v>
       </c>
       <c r="CK4" t="n">
-        <v>475595952095.6606</v>
+        <v>-0.104624691915945</v>
       </c>
       <c r="CL4" t="n">
-        <v>631287922614.6229</v>
+        <v>0.06821516883523009</v>
       </c>
       <c r="CM4" t="n">
-        <v>837947504562.6975</v>
+        <v>0.1338396673310135</v>
       </c>
       <c r="CN4" t="n">
-        <v>1112259549484.343</v>
+        <v>-0.02797498794096457</v>
       </c>
       <c r="CO4" t="n">
-        <v>1476370892785.313</v>
+        <v>-0.06939804450649575</v>
       </c>
       <c r="CP4" t="n">
-        <v>1959678398871.251</v>
+        <v>-0.06805239486854189</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2601202344050.714</v>
+        <v>-0.02169287805318109</v>
       </c>
       <c r="CR4" t="n">
-        <v>3452736754454.474</v>
+        <v>0.03613659797699595</v>
       </c>
       <c r="CS4" t="n">
-        <v>4583031044403.048</v>
+        <v>0.04682403170837986</v>
       </c>
       <c r="CT4" t="n">
-        <v>6083340563644.594</v>
+        <v>-0.05447623221177393</v>
       </c>
       <c r="CU4" t="n">
-        <v>8074794182001.751</v>
+        <v>-0.006418538434522218</v>
       </c>
       <c r="CV4" t="n">
-        <v>10718173740156.59</v>
+        <v>0.1019020686757179</v>
       </c>
       <c r="CW4" t="n">
-        <v>14226894919530.51</v>
+        <v>0.1653241249554185</v>
       </c>
       <c r="CX4" t="n">
-        <v>18884237553738.05</v>
+        <v>-0.01441194672506596</v>
       </c>
       <c r="CY4" t="n">
         <v>0.9357676345650803</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1352,310 +1352,310 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>-2</v>
-      </c>
       <c r="C4" t="n">
-        <v>-1.626071597644477</v>
+        <v>-0.2081602692794109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6502048890988242</v>
+        <v>0.2368703418860537</v>
       </c>
       <c r="E4" t="n">
-        <v>1.467696186510566</v>
+        <v>-0.1230622858809165</v>
       </c>
       <c r="F4" t="n">
-        <v>0.319655191196398</v>
+        <v>0.1109729000153391</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.863293090340523</v>
+        <v>-0.08106373156270597</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6446677353820698</v>
+        <v>-0.007738508536902028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2826779900757733</v>
+        <v>0.02164233177600125</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5291298833320589</v>
+        <v>0.04670014829481774</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08829658378450575</v>
+        <v>0.002396923711994018</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3761970190911153</v>
+        <v>-0.02741623784572229</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2031418192275757</v>
+        <v>0.02873185400901297</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2229028195143523</v>
+        <v>0.009733215690217173</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2809005980832062</v>
+        <v>0.03526079417051189</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04398779746303785</v>
+        <v>-0.04010148778780596</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1983558933826383</v>
+        <v>0.09240975519529027</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1581592894713032</v>
+        <v>-0.09053269869100279</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02557115536110097</v>
+        <v>0.02625779349432367</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06777046449952503</v>
+        <v>-0.03514975687229949</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.03428342655281685</v>
+        <v>0.03283304826986987</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.03848179075042878</v>
+        <v>-0.1640240540075292</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01809633729328037</v>
+        <v>0.04867467663591991</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02338986823666556</v>
+        <v>-0.1406007395317461</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.01109091832794673</v>
+        <v>0.04848653270099883</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01527252974304562</v>
+        <v>-0.04006292487864194</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06170153196004777</v>
+        <v>0.07220246280782745</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02406800184989254</v>
+        <v>0.04260074615209371</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0130475362910638</v>
+        <v>-0.0512110948619544</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.002687717199981008</v>
+        <v>-0.04545669178275625</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.03795074482078613</v>
+        <v>-0.001767207316304295</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.06812296518753921</v>
+        <v>0.03675160931389243</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.04252577751078132</v>
+        <v>0.01712066121325975</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.04891037080317926</v>
+        <v>-0.07430139341996048</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.04862979231399518</v>
+        <v>0.02127514046291259</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.02055860888585485</v>
+        <v>-0.08185017160508362</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.01434222566900278</v>
+        <v>0.09625545044983277</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.06209031768689265</v>
+        <v>-0.02818054685784931</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.04388959703528852</v>
+        <v>0.01280389481075761</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.01941022933056551</v>
+        <v>-0.09120664821658565</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01444850830332039</v>
+        <v>0.07101943323774554</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.07124997265848462</v>
+        <v>-0.02499351101469154</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.05073718588902217</v>
+        <v>0.08931747505444992</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.02008623374845896</v>
+        <v>-0.01494117608728463</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.01818745624785006</v>
+        <v>-0.04059171526286016</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.08193789129716303</v>
+        <v>-0.01654532484158569</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.02056883647199055</v>
+        <v>-0.09202374567284222</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.05828618852843119</v>
+        <v>0.0405891705249542</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.1186245801490347</v>
+        <v>-0.04028172324408923</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.001264074441202641</v>
+        <v>0.02198453971635738</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.08463676642653059</v>
+        <v>-0.05200793581795943</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.0213051137796419</v>
+        <v>-0.05079779001030151</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.1165756873456339</v>
+        <v>0.02996133147035179</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.00657725522867645</v>
+        <v>-0.007588065556670303</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.1633660252498251</v>
+        <v>0.0005798291294048146</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.09482466557469657</v>
+        <v>-0.06507040279509164</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.01497126598326161</v>
+        <v>0.01093993456518375</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.04083034325382382</v>
+        <v>-0.0119376072592483</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.009500159307354136</v>
+        <v>-0.04874848241757641</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.05307971248424311</v>
+        <v>-0.02920261418444951</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.04765559309760763</v>
+        <v>-0.001878582437916228</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.01618038714544884</v>
+        <v>0.07033354519351698</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.07954919460741799</v>
+        <v>0.06508687253000767</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0914421910735557</v>
+        <v>-0.01516218456741047</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.0623906582164947</v>
+        <v>-0.03285609550319189</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.08044526296793986</v>
+        <v>0.02981267365303999</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.007234316021627816</v>
+        <v>-0.09088714631037603</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01279729551797511</v>
+        <v>0.0560550888455607</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.01985185461517955</v>
+        <v>-0.02399120745717839</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.03261846648801856</v>
+        <v>0.02375268630220021</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.03980828558022176</v>
+        <v>0.00125759230708237</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.006672328644150204</v>
+        <v>-0.06368083557823355</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.07718009317382611</v>
+        <v>0.01537687517291721</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.0700175948664272</v>
+        <v>0.03906746895478819</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.0205113286060295</v>
+        <v>-0.06462241821222003</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.09031088440503086</v>
+        <v>0.05256880972964072</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.06873251993356388</v>
+        <v>0.007878390081878656</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.1152730504285116</v>
+        <v>-0.02356602448359763</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0.04888163476228767</v>
+        <v>0.07170640107982469</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.09977983192452736</v>
+        <v>-0.03741962051251192</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.1795984647307821</v>
+        <v>0.02446459439026426</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.06332785300936387</v>
+        <v>-0.03018105875847527</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.09444756477253204</v>
+        <v>0.05756875442766301</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.1677700281452596</v>
+        <v>-0.03261877111738867</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.03914298052674849</v>
+        <v>0.005229247768379424</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.1703412143702666</v>
+        <v>-0.08763091977354021</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.04563707248126943</v>
+        <v>0.1479503065663959</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.1322744984746227</v>
+        <v>-0.1040185635071045</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.104624691915945</v>
+        <v>0.04863522689550643</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.06821516883523009</v>
+        <v>-0.122503084897154</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.1338396673310135</v>
+        <v>-0.002799530606562003</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.02797498794096457</v>
+        <v>-0.1203277461428059</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.06939804450649575</v>
+        <v>-0.01146975122357239</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.06805239486854189</v>
+        <v>-0.06318986880000543</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.02169287805318109</v>
+        <v>-0.02859529339636864</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.03613659797699595</v>
+        <v>-0.03720216098356269</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.04682403170837986</v>
+        <v>-0.06344572180266358</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.05447623221177393</v>
+        <v>-0.01606341088838668</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.006418538434522218</v>
+        <v>-0.002086946166575219</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.1019020686757179</v>
+        <v>-0.01009605026139278</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.1653241249554185</v>
+        <v>-0.04588872794339314</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.01441194672506596</v>
+        <v>-0.04685654404360982</v>
       </c>
       <c r="CY4" t="n">
         <v>0.9357676345650803</v>
